--- a/public/excel/disdik.xlsx
+++ b/public/excel/disdik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D5C937-F61F-A344-A23F-27D4CEE4B553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A44DF2E-B44B-D14E-8F2C-75592182433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="3" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -1463,6 +1463,81 @@
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,12 +1577,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1519,75 +1588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1928,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AL192"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8:Y155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1966,125 +1966,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
+      <c r="A1" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2094,174 +2094,174 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="137" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="147" t="s">
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="142" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="162" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="162" t="s">
+      <c r="AG5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="163" t="s">
+      <c r="AH5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="152" t="s">
+      <c r="AI5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="143" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="144"/>
+      <c r="AK5" s="137"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="137" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="137" t="s">
+      <c r="L6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="147" t="s">
+      <c r="N6" s="141"/>
+      <c r="O6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="147" t="s">
+      <c r="P6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="147" t="s">
+      <c r="Q6" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="148"/>
-      <c r="S6" s="149" t="s">
+      <c r="R6" s="125"/>
+      <c r="S6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="150"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="152" t="s">
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="153" t="s">
+      <c r="W6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="154" t="s">
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="155" t="s">
+      <c r="AA6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="155" t="s">
+      <c r="AB6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="156" t="s">
+      <c r="AC6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="156" t="s">
+      <c r="AD6" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="165" t="s">
+      <c r="AE6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="146"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="157"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="126"/>
       <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="152"/>
+      <c r="V7" s="134"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -2281,18 +2281,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="139"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
         <v>0</v>
       </c>
       <c r="V8" s="16">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z8" s="16">
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" ref="U9:U72" si="6">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
+        <f t="shared" ref="U9:U72" si="6">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
         <v>0</v>
       </c>
       <c r="V9" s="16">
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="16">
-        <f t="shared" ref="Y9:Y72" si="9">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
+        <f t="shared" ref="Y9:Y72" si="9">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="16">
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" ref="U73:U136" si="31">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="BUTUH PERBAIKAN",Q73="SANGAT KURANG"),I73*J73*10%,I73*J73*20%)))</f>
+        <f t="shared" ref="U73:U136" si="31">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="SANGAT KURANG"),I73*J73*10%,I73*J73*20%)))</f>
         <v>0</v>
       </c>
       <c r="V73" s="16">
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" ref="Y73:Y136" si="32">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="BUTUH PERBAIKAN",Q73="SANGAT KURANG"),I73*K73*10%,I73*K73*20%)))</f>
+        <f t="shared" ref="Y73:Y136" si="32">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="SANGAT KURANG"),I73*K73*10%,I73*K73*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z73" s="16">
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="U137" s="16">
-        <f t="shared" ref="U137:U155" si="55">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="BUTUH PERBAIKAN",Q137="SANGAT KURANG"),I137*J137*10%,I137*J137*20%)))</f>
+        <f t="shared" ref="U137:U155" si="55">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="SANGAT KURANG"),I137*J137*10%,I137*J137*20%)))</f>
         <v>0</v>
       </c>
       <c r="V137" s="16">
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="Y137" s="16">
-        <f t="shared" ref="Y137:Y155" si="56">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="BUTUH PERBAIKAN",Q137="SANGAT KURANG"),I137*K137*10%,I137*K137*20%)))</f>
+        <f t="shared" ref="Y137:Y155" si="56">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="SANGAT KURANG"),I137*K137*10%,I137*K137*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z137" s="16">
@@ -15907,10 +15907,10 @@
       <c r="AK157" s="48"/>
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B158" s="160" t="s">
+      <c r="B158" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="160"/>
+      <c r="C158" s="129"/>
       <c r="D158" s="48"/>
       <c r="E158" s="48"/>
       <c r="F158" s="48"/>
@@ -15941,12 +15941,12 @@
       <c r="AC159" s="48"/>
       <c r="AD159" s="48"/>
       <c r="AE159" s="58"/>
-      <c r="AF159" s="161" t="s">
+      <c r="AF159" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AG159" s="161"/>
-      <c r="AH159" s="161"/>
-      <c r="AI159" s="161"/>
+      <c r="AG159" s="130"/>
+      <c r="AH159" s="130"/>
+      <c r="AI159" s="130"/>
       <c r="AJ159" s="48"/>
       <c r="AK159" s="60"/>
     </row>
@@ -16021,41 +16021,41 @@
       <c r="AI163" s="63"/>
     </row>
     <row r="164" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B164" s="159" t="s">
+      <c r="B164" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C164" s="159"/>
-      <c r="T164" s="158"/>
-      <c r="U164" s="158"/>
-      <c r="V164" s="158"/>
-      <c r="W164" s="158"/>
-      <c r="X164" s="158"/>
-      <c r="Y164" s="158"/>
+      <c r="C164" s="128"/>
+      <c r="T164" s="127"/>
+      <c r="U164" s="127"/>
+      <c r="V164" s="127"/>
+      <c r="W164" s="127"/>
+      <c r="X164" s="127"/>
+      <c r="Y164" s="127"/>
       <c r="AE164" s="48"/>
-      <c r="AF164" s="159" t="s">
+      <c r="AF164" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="AG164" s="159"/>
-      <c r="AH164" s="159"/>
-      <c r="AI164" s="159"/>
+      <c r="AG164" s="128"/>
+      <c r="AH164" s="128"/>
+      <c r="AI164" s="128"/>
     </row>
     <row r="165" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B165" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="69"/>
-      <c r="T165" s="158"/>
-      <c r="U165" s="158"/>
-      <c r="V165" s="158"/>
-      <c r="W165" s="158"/>
-      <c r="X165" s="158"/>
-      <c r="Y165" s="158"/>
-      <c r="AF165" s="159" t="s">
+      <c r="T165" s="127"/>
+      <c r="U165" s="127"/>
+      <c r="V165" s="127"/>
+      <c r="W165" s="127"/>
+      <c r="X165" s="127"/>
+      <c r="Y165" s="127"/>
+      <c r="AF165" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="AG165" s="159"/>
-      <c r="AH165" s="159"/>
-      <c r="AI165" s="159"/>
+      <c r="AG165" s="128"/>
+      <c r="AH165" s="128"/>
+      <c r="AI165" s="128"/>
     </row>
     <row r="166" spans="2:37" x14ac:dyDescent="0.2">
       <c r="Z166" s="48"/>
@@ -16494,19 +16494,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="T165:Y165"/>
-    <mergeCell ref="AF165:AI165"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="AF159:AI159"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="T164:Y164"/>
-    <mergeCell ref="AF164:AI164"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="S5:AE5"/>
     <mergeCell ref="AJ5:AK7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
@@ -16523,22 +16526,19 @@
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="T165:Y165"/>
+    <mergeCell ref="AF165:AI165"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="AF159:AI159"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="T164:Y164"/>
+    <mergeCell ref="AF164:AI164"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AE6:AE7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16550,7 +16550,7 @@
   <dimension ref="A1:AL59"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="Y8" sqref="Y8:Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16587,302 +16587,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="137" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="142" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="162" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="162" t="s">
+      <c r="AG5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="163" t="s">
+      <c r="AH5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="152" t="s">
+      <c r="AI5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="143" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="144"/>
+      <c r="AK5" s="137"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="137" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="137" t="s">
+      <c r="L6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="147" t="s">
+      <c r="N6" s="141"/>
+      <c r="O6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="147" t="s">
+      <c r="P6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="147" t="s">
+      <c r="Q6" s="124" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="149" t="s">
+      <c r="S6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="150"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="152" t="s">
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="153" t="s">
+      <c r="W6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="154" t="s">
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="155" t="s">
+      <c r="AA6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="155" t="s">
+      <c r="AB6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="156" t="s">
+      <c r="AC6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="156" t="s">
+      <c r="AD6" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="165" t="s">
+      <c r="AE6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="146"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="94" t="s">
         <v>149</v>
       </c>
@@ -16895,7 +16895,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="152"/>
+      <c r="V7" s="134"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -16905,18 +16905,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="139"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
         <v>0</v>
       </c>
       <c r="V8" s="16">
@@ -16970,7 +16970,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z8" s="16">
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" ref="U9:U22" si="3">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
+        <f t="shared" ref="U9:U22" si="3">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
         <v>0</v>
       </c>
       <c r="V9" s="16">
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="16">
-        <f t="shared" ref="Y9:Y22" si="7">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
+        <f t="shared" ref="Y9:Y22" si="7">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="16">
@@ -18278,10 +18278,10 @@
       <c r="AL24" s="90"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="160"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
@@ -18339,12 +18339,12 @@
       <c r="AB26" s="48"/>
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
-      <c r="AF26" s="161" t="s">
+      <c r="AF26" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AG26" s="161"/>
-      <c r="AH26" s="161"/>
-      <c r="AI26" s="161"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+      <c r="AI26" s="130"/>
       <c r="AJ26" s="48"/>
       <c r="AK26" s="60"/>
     </row>
@@ -18424,35 +18424,35 @@
       <c r="AI30" s="63"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B31" s="159" t="s">
+      <c r="B31" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="159"/>
+      <c r="C31" s="128"/>
       <c r="AE31" s="48"/>
-      <c r="AF31" s="159" t="s">
+      <c r="AF31" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="AG31" s="159"/>
-      <c r="AH31" s="159"/>
-      <c r="AI31" s="159"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="128"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B32" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="69"/>
-      <c r="T32" s="158"/>
-      <c r="U32" s="158"/>
-      <c r="V32" s="158"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="AF32" s="159" t="s">
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="AF32" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="159"/>
-      <c r="AI32" s="159"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="128"/>
     </row>
     <row r="33" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Z33" s="48"/>
@@ -18891,6 +18891,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -18907,34 +18935,6 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18946,7 +18946,7 @@
   <dimension ref="A1:AL54"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18984,298 +18984,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
       <c r="AL1" s="95"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="95"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
       <c r="AL3" s="96"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="137" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="142" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="162" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="162" t="s">
+      <c r="AG5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="163" t="s">
+      <c r="AH5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="152" t="s">
+      <c r="AI5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="143" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="144"/>
+      <c r="AK5" s="137"/>
       <c r="AL5" s="113"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="137" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="137" t="s">
+      <c r="L6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="147" t="s">
+      <c r="N6" s="141"/>
+      <c r="O6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="147" t="s">
+      <c r="P6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="147" t="s">
+      <c r="Q6" s="124" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="149" t="s">
+      <c r="S6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="150"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="152" t="s">
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="153" t="s">
+      <c r="W6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="154" t="s">
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="155" t="s">
+      <c r="AA6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="155" t="s">
+      <c r="AB6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="156" t="s">
+      <c r="AC6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="156" t="s">
+      <c r="AD6" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="165" t="s">
+      <c r="AE6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="146"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
       <c r="AL6" s="113"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="94" t="s">
         <v>149</v>
       </c>
@@ -19288,7 +19288,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="152"/>
+      <c r="V7" s="134"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -19298,18 +19298,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="139"/>
       <c r="AL7" s="113"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19345,7 +19345,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
         <v>0</v>
       </c>
       <c r="V8" s="16">
@@ -19361,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z8" s="16">
@@ -19437,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" ref="U9:U15" si="3">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
+        <f t="shared" ref="U9:U15" si="3">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
         <v>0</v>
       </c>
       <c r="V9" s="16">
@@ -19453,7 +19453,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="16">
-        <f t="shared" ref="Y9:Y15" si="6">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
+        <f t="shared" ref="Y9:Y15" si="6">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="14">
@@ -20174,10 +20174,10 @@
       <c r="S19" s="87"/>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="160"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
@@ -20226,12 +20226,12 @@
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
       <c r="AE21" s="58"/>
-      <c r="AF21" s="161" t="s">
+      <c r="AF21" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AG21" s="161"/>
-      <c r="AH21" s="161"/>
-      <c r="AI21" s="161"/>
+      <c r="AG21" s="130"/>
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="130"/>
       <c r="AJ21" s="48"/>
       <c r="AK21" s="60"/>
       <c r="AL21" s="60"/>
@@ -20341,41 +20341,41 @@
       <c r="AI25" s="63"/>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="159"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
+      <c r="C26" s="128"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
       <c r="AE26" s="48"/>
-      <c r="AF26" s="159" t="s">
+      <c r="AF26" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="159"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="128"/>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="69"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="AF27" s="159" t="s">
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="AF27" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="AG27" s="159"/>
-      <c r="AH27" s="159"/>
-      <c r="AI27" s="159"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="128"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="Z28" s="48"/>
@@ -20897,16 +20897,27 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="T21:Y22"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -20923,27 +20934,16 @@
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="T21:Y22"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20953,8 +20953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D144147-FA88-BC4A-8FE7-710A2E4D31FD}">
   <dimension ref="A1:AL192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O137" workbookViewId="0">
-      <selection activeCell="AA153" sqref="AA153"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20991,125 +20991,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
+      <c r="A1" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -21119,174 +21119,174 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="137" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="147" t="s">
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="142" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="162" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="162" t="s">
+      <c r="AG5" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="163" t="s">
+      <c r="AH5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="152" t="s">
+      <c r="AI5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="143" t="s">
+      <c r="AJ5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="144"/>
+      <c r="AK5" s="137"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="137" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="137" t="s">
+      <c r="L6" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="138"/>
-      <c r="O6" s="147" t="s">
+      <c r="N6" s="141"/>
+      <c r="O6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="147" t="s">
+      <c r="P6" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="147" t="s">
+      <c r="Q6" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="148"/>
-      <c r="S6" s="149" t="s">
+      <c r="R6" s="125"/>
+      <c r="S6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="150"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="152" t="s">
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="153" t="s">
+      <c r="W6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="154" t="s">
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="155" t="s">
+      <c r="AA6" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="155" t="s">
+      <c r="AB6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="156" t="s">
+      <c r="AC6" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="156" t="s">
+      <c r="AD6" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="165" t="s">
+      <c r="AE6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="146"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="157"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="126"/>
       <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
@@ -21296,7 +21296,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="152"/>
+      <c r="V7" s="134"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -21306,18 +21306,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="135"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="139"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -21353,7 +21353,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
         <v>0</v>
       </c>
       <c r="V8" s="16">
@@ -21369,7 +21369,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="BUTUH PERBAIKAN",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z8" s="16">
@@ -21445,7 +21445,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" ref="U9:U72" si="6">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
+        <f t="shared" ref="U9:U72" si="6">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
         <v>0</v>
       </c>
       <c r="V9" s="16">
@@ -21461,7 +21461,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="16">
-        <f t="shared" ref="Y9:Y72" si="9">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="BUTUH PERBAIKAN",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
+        <f t="shared" ref="Y9:Y72" si="9">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="16">
@@ -27325,7 +27325,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" ref="U73:U136" si="18">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="BUTUH PERBAIKAN",Q73="SANGAT KURANG"),I73*J73*10%,I73*J73*20%)))</f>
+        <f t="shared" ref="U73:U136" si="18">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="SANGAT KURANG"),I73*J73*10%,I73*J73*20%)))</f>
         <v>0</v>
       </c>
       <c r="V73" s="16">
@@ -27341,7 +27341,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" ref="Y73:Y136" si="19">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="BUTUH PERBAIKAN",Q73="SANGAT KURANG"),I73*K73*10%,I73*K73*20%)))</f>
+        <f t="shared" ref="Y73:Y136" si="19">IF(P73&lt;6750,0,IF(Q73="",0,IF(OR(Q73="KURANG",Q73="SANGAT KURANG"),I73*K73*10%,I73*K73*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z73" s="16">
@@ -33153,7 +33153,7 @@
         <v>0</v>
       </c>
       <c r="U137" s="16">
-        <f t="shared" ref="U137:U155" si="25">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="BUTUH PERBAIKAN",Q137="SANGAT KURANG"),I137*J137*10%,I137*J137*20%)))</f>
+        <f t="shared" ref="U137:U155" si="25">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="SANGAT KURANG"),I137*J137*10%,I137*J137*20%)))</f>
         <v>0</v>
       </c>
       <c r="V137" s="16">
@@ -33169,7 +33169,7 @@
         <v>0</v>
       </c>
       <c r="Y137" s="16">
-        <f t="shared" ref="Y137:Y155" si="26">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="BUTUH PERBAIKAN",Q137="SANGAT KURANG"),I137*K137*10%,I137*K137*20%)))</f>
+        <f t="shared" ref="Y137:Y155" si="26">IF(P137&lt;6750,0,IF(Q137="",0,IF(OR(Q137="KURANG",Q137="SANGAT KURANG"),I137*K137*10%,I137*K137*20%)))</f>
         <v>0</v>
       </c>
       <c r="Z137" s="16">
@@ -34932,10 +34932,10 @@
       <c r="AK157" s="48"/>
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B158" s="160" t="s">
+      <c r="B158" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="160"/>
+      <c r="C158" s="129"/>
       <c r="D158" s="48"/>
       <c r="E158" s="48"/>
       <c r="F158" s="48"/>
@@ -34966,12 +34966,12 @@
       <c r="AC159" s="48"/>
       <c r="AD159" s="48"/>
       <c r="AE159" s="58"/>
-      <c r="AF159" s="161" t="s">
+      <c r="AF159" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AG159" s="161"/>
-      <c r="AH159" s="161"/>
-      <c r="AI159" s="161"/>
+      <c r="AG159" s="130"/>
+      <c r="AH159" s="130"/>
+      <c r="AI159" s="130"/>
       <c r="AJ159" s="48"/>
       <c r="AK159" s="60"/>
     </row>
@@ -35046,41 +35046,41 @@
       <c r="AI163" s="63"/>
     </row>
     <row r="164" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B164" s="159" t="s">
+      <c r="B164" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C164" s="159"/>
-      <c r="T164" s="158"/>
-      <c r="U164" s="158"/>
-      <c r="V164" s="158"/>
-      <c r="W164" s="158"/>
-      <c r="X164" s="158"/>
-      <c r="Y164" s="158"/>
+      <c r="C164" s="128"/>
+      <c r="T164" s="127"/>
+      <c r="U164" s="127"/>
+      <c r="V164" s="127"/>
+      <c r="W164" s="127"/>
+      <c r="X164" s="127"/>
+      <c r="Y164" s="127"/>
       <c r="AE164" s="48"/>
-      <c r="AF164" s="159" t="s">
+      <c r="AF164" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="AG164" s="159"/>
-      <c r="AH164" s="159"/>
-      <c r="AI164" s="159"/>
+      <c r="AG164" s="128"/>
+      <c r="AH164" s="128"/>
+      <c r="AI164" s="128"/>
     </row>
     <row r="165" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B165" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="69"/>
-      <c r="T165" s="158"/>
-      <c r="U165" s="158"/>
-      <c r="V165" s="158"/>
-      <c r="W165" s="158"/>
-      <c r="X165" s="158"/>
-      <c r="Y165" s="158"/>
-      <c r="AF165" s="159" t="s">
+      <c r="T165" s="127"/>
+      <c r="U165" s="127"/>
+      <c r="V165" s="127"/>
+      <c r="W165" s="127"/>
+      <c r="X165" s="127"/>
+      <c r="Y165" s="127"/>
+      <c r="AF165" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="AG165" s="159"/>
-      <c r="AH165" s="159"/>
-      <c r="AI165" s="159"/>
+      <c r="AG165" s="128"/>
+      <c r="AH165" s="128"/>
+      <c r="AI165" s="128"/>
     </row>
     <row r="166" spans="2:37" x14ac:dyDescent="0.2">
       <c r="Z166" s="48"/>
@@ -35519,6 +35519,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="T165:Y165"/>
+    <mergeCell ref="AF165:AI165"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="AF159:AI159"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="T164:Y164"/>
+    <mergeCell ref="AF164:AI164"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -35535,35 +35564,6 @@
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="R5:R7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="T165:Y165"/>
-    <mergeCell ref="AF165:AI165"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="AF159:AI159"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="T164:Y164"/>
-    <mergeCell ref="AF164:AI164"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="H5:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/disdik.xlsx
+++ b/public/excel/disdik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1422838E-31BD-5A49-970F-825CF9A9C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC9828-1C4C-1B4D-A850-DB2125246728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="3" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULER" sheetId="1" r:id="rId1"/>
@@ -1468,6 +1468,96 @@
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,12 +1597,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1520,9 +1604,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,65 +1618,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1608,39 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1966,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AN192"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AN1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1981,7 +1981,7 @@
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="13" width="8.5" customWidth="1"/>
+    <col min="10" max="13" width="8.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="57" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
@@ -2005,106 +2005,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
+      <c r="A1" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
       <c r="AE1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
       <c r="AE2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="146"/>
       <c r="AE3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
@@ -2115,184 +2115,184 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="122" t="s">
+      <c r="H5" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="125" t="s">
+      <c r="J5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="128" t="s">
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="130" t="s">
+      <c r="O5" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="138" t="s">
+      <c r="P5" s="159"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="170" t="s">
+      <c r="S5" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="171"/>
-      <c r="AE5" s="172"/>
-      <c r="AF5" s="162" t="s">
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="AG5" s="162" t="s">
+      <c r="AG5" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="AH5" s="163" t="s">
+      <c r="AH5" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="AI5" s="154" t="s">
+      <c r="AI5" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="AJ5" s="154" t="s">
+      <c r="AJ5" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="154" t="s">
+      <c r="AK5" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="143" t="s">
+      <c r="AL5" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AM5" s="164" t="s">
+      <c r="AM5" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="AN5" s="164"/>
+      <c r="AN5" s="118"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="128" t="s">
+      <c r="A6" s="147"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="138" t="s">
+      <c r="N6" s="137"/>
+      <c r="O6" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="P6" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="Q6" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="139"/>
-      <c r="S6" s="140" t="s">
+      <c r="R6" s="131"/>
+      <c r="S6" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="141"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="143" t="s">
+      <c r="T6" s="139"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="144" t="s">
+      <c r="W6" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="145" t="s">
+      <c r="X6" s="141"/>
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="146" t="s">
+      <c r="AA6" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="146" t="s">
+      <c r="AB6" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="147" t="s">
+      <c r="AC6" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="147" t="s">
+      <c r="AD6" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="156" t="s">
+      <c r="AE6" s="119" t="s">
         <v>216</v>
       </c>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="155"/>
-      <c r="AJ6" s="155"/>
-      <c r="AK6" s="155"/>
-      <c r="AL6" s="143"/>
-      <c r="AM6" s="164"/>
-      <c r="AN6" s="164"/>
+      <c r="AF6" s="124"/>
+      <c r="AG6" s="124"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116"/>
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="117"/>
+      <c r="AM6" s="118"/>
+      <c r="AN6" s="118"/>
     </row>
     <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="148"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="132"/>
       <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="143"/>
+      <c r="V7" s="117"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -2312,21 +2312,21 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="156"/>
-      <c r="AF7" s="167"/>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="168"/>
-      <c r="AI7" s="169"/>
-      <c r="AJ7" s="169"/>
-      <c r="AK7" s="155"/>
-      <c r="AL7" s="143"/>
-      <c r="AM7" s="164"/>
-      <c r="AN7" s="164"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="144"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="125"/>
+      <c r="AG7" s="125"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="118"/>
+      <c r="AN7" s="118"/>
     </row>
     <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -17664,10 +17664,10 @@
       <c r="O157"/>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B158" s="151" t="s">
+      <c r="B158" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="151"/>
+      <c r="C158" s="134"/>
       <c r="D158" s="39"/>
       <c r="E158" s="39"/>
       <c r="F158" s="39"/>
@@ -17749,16 +17749,16 @@
       <c r="AE163" s="39"/>
     </row>
     <row r="164" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B164" s="150" t="s">
+      <c r="B164" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="C164" s="150"/>
-      <c r="T164" s="149"/>
-      <c r="U164" s="149"/>
-      <c r="V164" s="149"/>
-      <c r="W164" s="149"/>
-      <c r="X164" s="149"/>
-      <c r="Y164" s="149"/>
+      <c r="C164" s="135"/>
+      <c r="T164" s="133"/>
+      <c r="U164" s="133"/>
+      <c r="V164" s="133"/>
+      <c r="W164" s="133"/>
+      <c r="X164" s="133"/>
+      <c r="Y164" s="133"/>
       <c r="AE164" s="39"/>
     </row>
     <row r="165" spans="2:31" x14ac:dyDescent="0.2">
@@ -17766,12 +17766,12 @@
         <v>83</v>
       </c>
       <c r="C165" s="60"/>
-      <c r="T165" s="149"/>
-      <c r="U165" s="149"/>
-      <c r="V165" s="149"/>
-      <c r="W165" s="149"/>
-      <c r="X165" s="149"/>
-      <c r="Y165" s="149"/>
+      <c r="T165" s="133"/>
+      <c r="U165" s="133"/>
+      <c r="V165" s="133"/>
+      <c r="W165" s="133"/>
+      <c r="X165" s="133"/>
+      <c r="Y165" s="133"/>
     </row>
     <row r="166" spans="2:31" x14ac:dyDescent="0.2">
       <c r="Z166" s="39"/>
@@ -18056,16 +18056,21 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AM5:AN7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:AD2"/>
+    <mergeCell ref="A3:AD3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
     <mergeCell ref="R5:R7"/>
     <mergeCell ref="T165:Y165"/>
     <mergeCell ref="B158:C158"/>
@@ -18081,26 +18086,21 @@
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AM5:AN7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AJ7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A2:AD2"/>
-    <mergeCell ref="A3:AD3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18111,8 +18111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2909FC1-85D7-2845-970A-4AF6BA3F4156}">
   <dimension ref="A1:AL59"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8:Y22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18126,7 +18126,7 @@
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="13" width="8.5" customWidth="1"/>
+    <col min="10" max="13" width="8.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="57" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
@@ -18149,302 +18149,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="115"/>
-      <c r="AK1" s="115"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="146"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="146"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="146"/>
+      <c r="AK3" s="146"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="122" t="s">
+      <c r="H5" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="125" t="s">
+      <c r="J5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="128" t="s">
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="130" t="s">
+      <c r="O5" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="132"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="160"/>
       <c r="R5" s="84"/>
-      <c r="S5" s="133" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="133"/>
-      <c r="AE5" s="133"/>
-      <c r="AF5" s="153" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="153" t="s">
+      <c r="AG5" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="154" t="s">
+      <c r="AH5" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="143" t="s">
+      <c r="AI5" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="134" t="s">
+      <c r="AJ5" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="135"/>
+      <c r="AK5" s="162"/>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="128" t="s">
+      <c r="A6" s="147"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="138" t="s">
+      <c r="N6" s="137"/>
+      <c r="O6" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="P6" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="Q6" s="130" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="140" t="s">
+      <c r="S6" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="141"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="143" t="s">
+      <c r="T6" s="139"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="144" t="s">
+      <c r="W6" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="145" t="s">
+      <c r="X6" s="141"/>
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="146" t="s">
+      <c r="AA6" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="146" t="s">
+      <c r="AB6" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="147" t="s">
+      <c r="AC6" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="147" t="s">
+      <c r="AD6" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="156" t="s">
+      <c r="AE6" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="153"/>
-      <c r="AG6" s="153"/>
-      <c r="AH6" s="155"/>
-      <c r="AI6" s="143"/>
-      <c r="AJ6" s="136"/>
-      <c r="AK6" s="137"/>
+      <c r="AF6" s="168"/>
+      <c r="AG6" s="168"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="164"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
       <c r="R7" s="85" t="s">
         <v>149</v>
       </c>
@@ -18457,7 +18457,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="143"/>
+      <c r="V7" s="117"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -18467,18 +18467,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="156"/>
-      <c r="AF7" s="153"/>
-      <c r="AG7" s="153"/>
-      <c r="AH7" s="155"/>
-      <c r="AI7" s="143"/>
-      <c r="AJ7" s="136"/>
-      <c r="AK7" s="137"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="144"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="168"/>
+      <c r="AG7" s="168"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="117"/>
+      <c r="AJ7" s="163"/>
+      <c r="AK7" s="164"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19840,10 +19840,10 @@
       <c r="AL24" s="81"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="151"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -19859,12 +19859,12 @@
       <c r="Q25" s="47"/>
       <c r="R25" s="47"/>
       <c r="S25" s="39"/>
-      <c r="T25" s="157"/>
-      <c r="U25" s="157"/>
-      <c r="V25" s="157"/>
-      <c r="W25" s="157"/>
-      <c r="X25" s="157"/>
-      <c r="Y25" s="157"/>
+      <c r="T25" s="166"/>
+      <c r="U25" s="166"/>
+      <c r="V25" s="166"/>
+      <c r="W25" s="166"/>
+      <c r="X25" s="166"/>
+      <c r="Y25" s="166"/>
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
       <c r="AB25" s="39"/>
@@ -19901,12 +19901,12 @@
       <c r="AB26" s="39"/>
       <c r="AC26" s="39"/>
       <c r="AD26" s="39"/>
-      <c r="AF26" s="152" t="s">
+      <c r="AF26" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="AG26" s="152"/>
-      <c r="AH26" s="152"/>
-      <c r="AI26" s="152"/>
+      <c r="AG26" s="167"/>
+      <c r="AH26" s="167"/>
+      <c r="AI26" s="167"/>
       <c r="AJ26" s="39"/>
       <c r="AK26" s="51"/>
     </row>
@@ -19986,35 +19986,35 @@
       <c r="AI30" s="54"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B31" s="150" t="s">
+      <c r="B31" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="150"/>
+      <c r="C31" s="135"/>
       <c r="AE31" s="39"/>
-      <c r="AF31" s="150" t="s">
+      <c r="AF31" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="AG31" s="150"/>
-      <c r="AH31" s="150"/>
-      <c r="AI31" s="150"/>
+      <c r="AG31" s="135"/>
+      <c r="AH31" s="135"/>
+      <c r="AI31" s="135"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="60"/>
-      <c r="T32" s="149"/>
-      <c r="U32" s="149"/>
-      <c r="V32" s="149"/>
-      <c r="W32" s="149"/>
-      <c r="X32" s="149"/>
-      <c r="Y32" s="149"/>
-      <c r="AF32" s="150" t="s">
+      <c r="T32" s="133"/>
+      <c r="U32" s="133"/>
+      <c r="V32" s="133"/>
+      <c r="W32" s="133"/>
+      <c r="X32" s="133"/>
+      <c r="Y32" s="133"/>
+      <c r="AF32" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="AG32" s="150"/>
-      <c r="AH32" s="150"/>
-      <c r="AI32" s="150"/>
+      <c r="AG32" s="135"/>
+      <c r="AH32" s="135"/>
+      <c r="AI32" s="135"/>
     </row>
     <row r="33" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Z33" s="39"/>
@@ -20453,6 +20453,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -20469,34 +20497,6 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20508,7 +20508,7 @@
   <dimension ref="A1:AL54"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20522,7 +20522,7 @@
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="13" width="8.5" customWidth="1"/>
+    <col min="10" max="13" width="8.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="57" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
@@ -20546,298 +20546,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="145" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="115"/>
-      <c r="AK1" s="115"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
       <c r="AL1" s="86"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
       <c r="AL2" s="86"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="146"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="146"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="146"/>
+      <c r="AK3" s="146"/>
       <c r="AL3" s="87"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="122" t="s">
+      <c r="H5" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="125" t="s">
+      <c r="J5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="128" t="s">
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="130" t="s">
+      <c r="O5" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="132"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="160"/>
       <c r="R5" s="84"/>
-      <c r="S5" s="133" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="133"/>
-      <c r="AE5" s="133"/>
-      <c r="AF5" s="153" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="153" t="s">
+      <c r="AG5" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="154" t="s">
+      <c r="AH5" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="143" t="s">
+      <c r="AI5" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="134" t="s">
+      <c r="AJ5" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="AK5" s="135"/>
+      <c r="AK5" s="162"/>
       <c r="AL5" s="104"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="128" t="s">
+      <c r="A6" s="147"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="138" t="s">
+      <c r="N6" s="137"/>
+      <c r="O6" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="P6" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="Q6" s="130" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="140" t="s">
+      <c r="S6" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="141"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="143" t="s">
+      <c r="T6" s="139"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="144" t="s">
+      <c r="W6" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="145" t="s">
+      <c r="X6" s="141"/>
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="146" t="s">
+      <c r="AA6" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="146" t="s">
+      <c r="AB6" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="147" t="s">
+      <c r="AC6" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="147" t="s">
+      <c r="AD6" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="156" t="s">
+      <c r="AE6" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="153"/>
-      <c r="AG6" s="153"/>
-      <c r="AH6" s="155"/>
-      <c r="AI6" s="143"/>
-      <c r="AJ6" s="136"/>
-      <c r="AK6" s="137"/>
+      <c r="AF6" s="168"/>
+      <c r="AG6" s="168"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="164"/>
       <c r="AL6" s="104"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
       <c r="R7" s="85" t="s">
         <v>149</v>
       </c>
@@ -20850,7 +20850,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="143"/>
+      <c r="V7" s="117"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -20860,18 +20860,18 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="156"/>
-      <c r="AF7" s="153"/>
-      <c r="AG7" s="153"/>
-      <c r="AH7" s="155"/>
-      <c r="AI7" s="143"/>
-      <c r="AJ7" s="136"/>
-      <c r="AK7" s="137"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="144"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="168"/>
+      <c r="AG7" s="168"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="117"/>
+      <c r="AJ7" s="163"/>
+      <c r="AK7" s="164"/>
       <c r="AL7" s="104"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -21736,10 +21736,10 @@
       <c r="S19" s="78"/>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="151"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -21776,24 +21776,24 @@
       <c r="Q21" s="47"/>
       <c r="R21" s="47"/>
       <c r="S21" s="39"/>
-      <c r="T21" s="161"/>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="161"/>
-      <c r="X21" s="161"/>
-      <c r="Y21" s="161"/>
+      <c r="T21" s="172"/>
+      <c r="U21" s="172"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="172"/>
+      <c r="Y21" s="172"/>
       <c r="Z21" s="47"/>
       <c r="AA21" s="39"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="39"/>
       <c r="AD21" s="39"/>
       <c r="AE21" s="49"/>
-      <c r="AF21" s="152" t="s">
+      <c r="AF21" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="AG21" s="152"/>
-      <c r="AH21" s="152"/>
-      <c r="AI21" s="152"/>
+      <c r="AG21" s="167"/>
+      <c r="AH21" s="167"/>
+      <c r="AI21" s="167"/>
       <c r="AJ21" s="39"/>
       <c r="AK21" s="51"/>
       <c r="AL21" s="51"/>
@@ -21816,12 +21816,12 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="39"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="161"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="172"/>
+      <c r="V22" s="172"/>
+      <c r="W22" s="172"/>
+      <c r="X22" s="172"/>
+      <c r="Y22" s="172"/>
       <c r="Z22" s="47"/>
       <c r="AA22" s="39"/>
       <c r="AB22" s="39"/>
@@ -21903,41 +21903,41 @@
       <c r="AI25" s="54"/>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B26" s="150" t="s">
+      <c r="B26" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="150"/>
-      <c r="T26" s="149"/>
-      <c r="U26" s="149"/>
-      <c r="V26" s="149"/>
-      <c r="W26" s="149"/>
-      <c r="X26" s="149"/>
-      <c r="Y26" s="149"/>
+      <c r="C26" s="135"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="133"/>
+      <c r="X26" s="133"/>
+      <c r="Y26" s="133"/>
       <c r="AE26" s="39"/>
-      <c r="AF26" s="150" t="s">
+      <c r="AF26" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="AG26" s="150"/>
-      <c r="AH26" s="150"/>
-      <c r="AI26" s="150"/>
+      <c r="AG26" s="135"/>
+      <c r="AH26" s="135"/>
+      <c r="AI26" s="135"/>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="60" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="60"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="149"/>
-      <c r="W27" s="149"/>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="149"/>
-      <c r="AF27" s="150" t="s">
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="133"/>
+      <c r="X27" s="133"/>
+      <c r="Y27" s="133"/>
+      <c r="AF27" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="AG27" s="150"/>
-      <c r="AH27" s="150"/>
-      <c r="AI27" s="150"/>
+      <c r="AG27" s="135"/>
+      <c r="AH27" s="135"/>
+      <c r="AI27" s="135"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="Z28" s="39"/>
@@ -22153,7 +22153,7 @@
       <c r="C39" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="158" t="s">
+      <c r="D39" s="169" t="s">
         <v>159</v>
       </c>
       <c r="V39" s="65"/>
@@ -22177,7 +22177,7 @@
     <row r="40" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B40" s="95"/>
       <c r="C40" s="94"/>
-      <c r="D40" s="159"/>
+      <c r="D40" s="170"/>
       <c r="V40" s="65"/>
       <c r="W40" s="65"/>
       <c r="X40" s="66"/>
@@ -22242,10 +22242,10 @@
     </row>
     <row r="43" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="100"/>
-      <c r="C43" s="160" t="s">
+      <c r="C43" s="171" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="160"/>
+      <c r="D43" s="171"/>
       <c r="X43" s="39"/>
       <c r="Y43" s="39"/>
       <c r="Z43" s="39"/>
@@ -22459,16 +22459,27 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="T21:Y22"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="A3:AK3"/>
@@ -22485,27 +22496,16 @@
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="T21:Y22"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22515,8 +22515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D144147-FA88-BC4A-8FE7-710A2E4D31FD}">
   <dimension ref="A1:AN192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22529,8 +22529,8 @@
     <col min="6" max="6" width="24.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="13" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="8.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="57" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
@@ -22554,125 +22554,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="115"/>
-      <c r="AK1" s="115"/>
+      <c r="A1" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="146"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="146"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="146"/>
+      <c r="AK3" s="146"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -22682,184 +22682,184 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="122" t="s">
+      <c r="H5" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="125" t="s">
+      <c r="J5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="128" t="s">
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="130" t="s">
+      <c r="O5" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="138" t="s">
+      <c r="P5" s="159"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="133" t="s">
+      <c r="S5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="133"/>
-      <c r="AE5" s="133"/>
-      <c r="AF5" s="162" t="s">
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="AG5" s="162" t="s">
+      <c r="AG5" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="AH5" s="163" t="s">
+      <c r="AH5" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="AI5" s="154" t="s">
+      <c r="AI5" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="AJ5" s="154" t="s">
+      <c r="AJ5" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="154" t="s">
+      <c r="AK5" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="143" t="s">
+      <c r="AL5" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AM5" s="164" t="s">
+      <c r="AM5" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="AN5" s="164"/>
+      <c r="AN5" s="118"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="128" t="s">
+      <c r="A6" s="147"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="138" t="s">
+      <c r="N6" s="137"/>
+      <c r="O6" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="P6" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="Q6" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="139"/>
-      <c r="S6" s="140" t="s">
+      <c r="R6" s="131"/>
+      <c r="S6" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="141"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="143" t="s">
+      <c r="T6" s="139"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="144" t="s">
+      <c r="W6" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="145" t="s">
+      <c r="X6" s="141"/>
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="146" t="s">
+      <c r="AA6" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="146" t="s">
+      <c r="AB6" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="147" t="s">
+      <c r="AC6" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="AD6" s="147" t="s">
+      <c r="AD6" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" s="156" t="s">
+      <c r="AE6" s="119" t="s">
         <v>216</v>
       </c>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="155"/>
-      <c r="AJ6" s="155"/>
-      <c r="AK6" s="155"/>
-      <c r="AL6" s="143"/>
-      <c r="AM6" s="164"/>
-      <c r="AN6" s="164"/>
+      <c r="AF6" s="124"/>
+      <c r="AG6" s="124"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116"/>
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="117"/>
+      <c r="AM6" s="118"/>
+      <c r="AN6" s="118"/>
     </row>
     <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="148"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="132"/>
       <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
@@ -22869,7 +22869,7 @@
       <c r="U7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="143"/>
+      <c r="V7" s="117"/>
       <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
@@ -22879,21 +22879,21 @@
       <c r="Y7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="156"/>
-      <c r="AF7" s="167"/>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="168"/>
-      <c r="AI7" s="169"/>
-      <c r="AJ7" s="169"/>
-      <c r="AK7" s="155"/>
-      <c r="AL7" s="143"/>
-      <c r="AM7" s="164"/>
-      <c r="AN7" s="164"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="144"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="125"/>
+      <c r="AG7" s="125"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="118"/>
+      <c r="AN7" s="118"/>
     </row>
     <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -38231,10 +38231,10 @@
       <c r="O157"/>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B158" s="151" t="s">
+      <c r="B158" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="151"/>
+      <c r="C158" s="134"/>
       <c r="D158" s="39"/>
       <c r="E158" s="39"/>
       <c r="F158" s="39"/>
@@ -38316,16 +38316,16 @@
       <c r="AE163" s="39"/>
     </row>
     <row r="164" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B164" s="150" t="s">
+      <c r="B164" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="C164" s="150"/>
-      <c r="T164" s="149"/>
-      <c r="U164" s="149"/>
-      <c r="V164" s="149"/>
-      <c r="W164" s="149"/>
-      <c r="X164" s="149"/>
-      <c r="Y164" s="149"/>
+      <c r="C164" s="135"/>
+      <c r="T164" s="133"/>
+      <c r="U164" s="133"/>
+      <c r="V164" s="133"/>
+      <c r="W164" s="133"/>
+      <c r="X164" s="133"/>
+      <c r="Y164" s="133"/>
       <c r="AE164" s="39"/>
     </row>
     <row r="165" spans="2:31" x14ac:dyDescent="0.2">
@@ -38333,12 +38333,12 @@
         <v>83</v>
       </c>
       <c r="C165" s="60"/>
-      <c r="T165" s="149"/>
-      <c r="U165" s="149"/>
-      <c r="V165" s="149"/>
-      <c r="W165" s="149"/>
-      <c r="X165" s="149"/>
-      <c r="Y165" s="149"/>
+      <c r="T165" s="133"/>
+      <c r="U165" s="133"/>
+      <c r="V165" s="133"/>
+      <c r="W165" s="133"/>
+      <c r="X165" s="133"/>
+      <c r="Y165" s="133"/>
     </row>
     <row r="166" spans="2:31" x14ac:dyDescent="0.2">
       <c r="Z166" s="39"/>
@@ -38623,6 +38623,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="T165:Y165"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="T164:Y164"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="AL5:AL7"/>
     <mergeCell ref="AM5:AN7"/>
     <mergeCell ref="A1:AK1"/>
@@ -38639,35 +38668,6 @@
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="T165:Y165"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="T164:Y164"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="H5:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/disdik.xlsx
+++ b/public/excel/disdik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/var/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E0156A-DCED-EF40-813B-5EAF441CF62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DFA635-CA16-BA44-BCEF-EB2A5366566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="1100" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
+    <workbookView xWindow="2260" yWindow="1100" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULER" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="216">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -1432,13 +1432,7 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -1455,6 +1449,9 @@
     </xf>
     <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1620,6 +1617,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595FB568-998A-1A47-95BA-C0AE4150F5FD}">
   <dimension ref="A1:AL192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1982,100 +1982,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
+      <c r="A1" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
       <c r="AC1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
       <c r="AC2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
       <c r="AC3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
@@ -2086,180 +2086,180 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="147" t="s">
+      <c r="F5" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="148" t="s">
+      <c r="H5" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="150" t="s">
+      <c r="I5" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="136" t="s">
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="O5" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="138" t="s">
+      <c r="P5" s="154"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="123" t="s">
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="122" t="s">
         <v>212</v>
       </c>
-      <c r="AE5" s="123" t="s">
+      <c r="AE5" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="AF5" s="126" t="s">
+      <c r="AF5" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" s="116" t="s">
+      <c r="AG5" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="AH5" s="116" t="s">
+      <c r="AH5" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="AI5" s="116" t="s">
+      <c r="AI5" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="AJ5" s="118" t="s">
+      <c r="AJ5" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="AK5" s="119" t="s">
+      <c r="AK5" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="AL5" s="119"/>
+      <c r="AL5" s="118"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="143"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="136" t="s">
+      <c r="A6" s="142"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="138" t="s">
+      <c r="N6" s="136"/>
+      <c r="O6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="P6" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="Q6" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="139"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="118" t="s">
+      <c r="R6" s="138"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="130" t="s">
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="131" t="s">
+      <c r="Y6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="131" t="s">
+      <c r="Z6" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="132" t="s">
+      <c r="AA6" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="132" t="s">
+      <c r="AB6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="120" t="s">
+      <c r="AC6" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="117"/>
-      <c r="AH6" s="117"/>
-      <c r="AI6" s="117"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="119"/>
-      <c r="AL6" s="119"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="143"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="157"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="156"/>
       <c r="S7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="118"/>
+      <c r="T7" s="117"/>
       <c r="U7" s="4" t="s">
         <v>30</v>
       </c>
@@ -2269,21 +2269,21 @@
       <c r="W7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="132"/>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="117"/>
-      <c r="AJ7" s="118"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="119"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="128"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="117"/>
+      <c r="AK7" s="118"/>
+      <c r="AL7" s="118"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -2305,9 +2305,9 @@
         <f t="shared" ref="N8:N155" si="0">ROUND(I8*(SUM(J8:M8)),0)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="114"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
       <c r="R8" s="71"/>
       <c r="S8" s="16">
         <f>I8*J8</f>
@@ -2400,9 +2400,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="114"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="113"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="111"/>
       <c r="R9" s="71"/>
       <c r="S9" s="16">
         <f>I9*J9</f>
@@ -2495,9 +2495,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="114"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
       <c r="R10" s="71"/>
       <c r="S10" s="16">
         <f>I10*J10</f>
@@ -2590,9 +2590,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="114"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
       <c r="R11" s="71"/>
       <c r="S11" s="16">
         <f>I11*J11</f>
@@ -2685,9 +2685,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="114"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
       <c r="R12" s="71"/>
       <c r="S12" s="16">
         <f>I12*J12</f>
@@ -2780,9 +2780,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="114"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
       <c r="R13" s="71"/>
       <c r="S13" s="16">
         <f>I13*J13</f>
@@ -2875,9 +2875,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="114"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
       <c r="R14" s="71"/>
       <c r="S14" s="16">
         <f>I14*J14</f>
@@ -2970,9 +2970,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="114"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
       <c r="R15" s="71"/>
       <c r="S15" s="16">
         <f>I15*J15</f>
@@ -3065,9 +3065,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="114"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
       <c r="R16" s="71"/>
       <c r="S16" s="16">
         <f>I16*J16</f>
@@ -3160,9 +3160,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="114"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="71"/>
       <c r="S17" s="16">
         <f>I17*J17</f>
@@ -3255,9 +3255,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O18" s="114"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
       <c r="R18" s="71"/>
       <c r="S18" s="16">
         <f>I18*J18</f>
@@ -3350,9 +3350,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O19" s="114"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
       <c r="R19" s="71"/>
       <c r="S19" s="16">
         <f>I19*J19</f>
@@ -3445,9 +3445,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="114"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
       <c r="R20" s="71"/>
       <c r="S20" s="16">
         <f>I20*J20</f>
@@ -3540,9 +3540,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="114"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
       <c r="R21" s="71"/>
       <c r="S21" s="16">
         <f>I21*J21</f>
@@ -3635,9 +3635,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22" s="114"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
       <c r="R22" s="71"/>
       <c r="S22" s="16">
         <f>I22*J22</f>
@@ -3730,9 +3730,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="114"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
       <c r="R23" s="71"/>
       <c r="S23" s="16">
         <f>I23*J23</f>
@@ -3825,9 +3825,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="114"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
       <c r="R24" s="71"/>
       <c r="S24" s="16">
         <f>I24*J24</f>
@@ -3920,9 +3920,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
       <c r="R25" s="71"/>
       <c r="S25" s="16">
         <f>I25*J25</f>
@@ -4015,9 +4015,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="114"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
       <c r="R26" s="71"/>
       <c r="S26" s="16">
         <f>I26*J26</f>
@@ -4110,9 +4110,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="114"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
       <c r="R27" s="71"/>
       <c r="S27" s="16">
         <f>I27*J27</f>
@@ -4205,9 +4205,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="114"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
       <c r="R28" s="71"/>
       <c r="S28" s="16">
         <f>I28*J28</f>
@@ -4300,9 +4300,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="114"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
       <c r="R29" s="71"/>
       <c r="S29" s="16">
         <f>I29*J29</f>
@@ -4395,9 +4395,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O30" s="114"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
       <c r="R30" s="71"/>
       <c r="S30" s="16">
         <f>I30*J30</f>
@@ -4490,9 +4490,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O31" s="114"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
       <c r="R31" s="71"/>
       <c r="S31" s="16">
         <f>I31*J31</f>
@@ -4585,9 +4585,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O32" s="114"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
       <c r="R32" s="71"/>
       <c r="S32" s="16">
         <f>I32*J32</f>
@@ -4680,9 +4680,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="114"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
       <c r="R33" s="71"/>
       <c r="S33" s="16">
         <f>I33*J33</f>
@@ -4775,9 +4775,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O34" s="114"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
       <c r="R34" s="71"/>
       <c r="S34" s="16">
         <f>I34*J34</f>
@@ -4870,9 +4870,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O35" s="114"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
       <c r="R35" s="71"/>
       <c r="S35" s="16">
         <f>I35*J35</f>
@@ -4965,9 +4965,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O36" s="114"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="110"/>
       <c r="R36" s="71"/>
       <c r="S36" s="16">
         <f>I36*J36</f>
@@ -5060,9 +5060,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O37" s="114"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
       <c r="R37" s="71"/>
       <c r="S37" s="16">
         <f>I37*J37</f>
@@ -5155,9 +5155,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O38" s="114"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
       <c r="R38" s="71"/>
       <c r="S38" s="16">
         <f>I38*J38</f>
@@ -5250,9 +5250,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O39" s="114"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
       <c r="R39" s="71"/>
       <c r="S39" s="16">
         <f>I39*J39</f>
@@ -5345,9 +5345,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O40" s="114"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="110"/>
       <c r="R40" s="71"/>
       <c r="S40" s="16">
         <f>I40*J40</f>
@@ -5440,9 +5440,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O41" s="114"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
       <c r="R41" s="71"/>
       <c r="S41" s="16">
         <f>I41*J41</f>
@@ -5535,9 +5535,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O42" s="114"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="110"/>
+      <c r="Q42" s="110"/>
       <c r="R42" s="71"/>
       <c r="S42" s="16">
         <f>I42*J42</f>
@@ -5630,9 +5630,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O43" s="114"/>
-      <c r="P43" s="112"/>
-      <c r="Q43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="110"/>
+      <c r="Q43" s="110"/>
       <c r="R43" s="71"/>
       <c r="S43" s="16">
         <f>I43*J43</f>
@@ -5725,9 +5725,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O44" s="114"/>
-      <c r="P44" s="112"/>
-      <c r="Q44" s="112"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="110"/>
+      <c r="Q44" s="110"/>
       <c r="R44" s="71"/>
       <c r="S44" s="16">
         <f>I44*J44</f>
@@ -5820,9 +5820,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O45" s="114"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
       <c r="R45" s="71"/>
       <c r="S45" s="16">
         <f>I45*J45</f>
@@ -5915,9 +5915,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O46" s="114"/>
-      <c r="P46" s="112"/>
-      <c r="Q46" s="112"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
       <c r="R46" s="71"/>
       <c r="S46" s="16">
         <f>I46*J46</f>
@@ -6010,9 +6010,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O47" s="114"/>
-      <c r="P47" s="112"/>
-      <c r="Q47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
       <c r="R47" s="71"/>
       <c r="S47" s="16">
         <f>I47*J47</f>
@@ -6105,9 +6105,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O48" s="114"/>
-      <c r="P48" s="112"/>
-      <c r="Q48" s="112"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="110"/>
       <c r="R48" s="71"/>
       <c r="S48" s="16">
         <f>I48*J48</f>
@@ -6200,9 +6200,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O49" s="114"/>
-      <c r="P49" s="112"/>
-      <c r="Q49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
       <c r="R49" s="71"/>
       <c r="S49" s="16">
         <f>I49*J49</f>
@@ -6295,9 +6295,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O50" s="114"/>
-      <c r="P50" s="112"/>
-      <c r="Q50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="110"/>
       <c r="R50" s="71"/>
       <c r="S50" s="16">
         <f>I50*J50</f>
@@ -6390,9 +6390,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O51" s="114"/>
-      <c r="P51" s="112"/>
-      <c r="Q51" s="112"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="110"/>
+      <c r="Q51" s="110"/>
       <c r="R51" s="71"/>
       <c r="S51" s="16">
         <f>I51*J51</f>
@@ -6485,9 +6485,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O52" s="114"/>
-      <c r="P52" s="112"/>
-      <c r="Q52" s="112"/>
+      <c r="O52" s="112"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="110"/>
       <c r="R52" s="71"/>
       <c r="S52" s="16">
         <f>I52*J52</f>
@@ -6580,9 +6580,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O53" s="114"/>
-      <c r="P53" s="112"/>
-      <c r="Q53" s="112"/>
+      <c r="O53" s="112"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="110"/>
       <c r="R53" s="71"/>
       <c r="S53" s="16">
         <f>I53*J53</f>
@@ -6675,9 +6675,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O54" s="114"/>
-      <c r="P54" s="112"/>
-      <c r="Q54" s="112"/>
+      <c r="O54" s="112"/>
+      <c r="P54" s="110"/>
+      <c r="Q54" s="110"/>
       <c r="R54" s="71"/>
       <c r="S54" s="16">
         <f>I54*J54</f>
@@ -6770,9 +6770,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O55" s="114"/>
-      <c r="P55" s="112"/>
-      <c r="Q55" s="112"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
       <c r="R55" s="71"/>
       <c r="S55" s="16">
         <f>I55*J55</f>
@@ -6865,9 +6865,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O56" s="114"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="110"/>
       <c r="R56" s="71"/>
       <c r="S56" s="16">
         <f>I56*J56</f>
@@ -6960,9 +6960,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O57" s="114"/>
-      <c r="P57" s="112"/>
-      <c r="Q57" s="112"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="110"/>
       <c r="R57" s="71"/>
       <c r="S57" s="16">
         <f>I57*J57</f>
@@ -7055,9 +7055,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O58" s="114"/>
-      <c r="P58" s="112"/>
-      <c r="Q58" s="112"/>
+      <c r="O58" s="112"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="110"/>
       <c r="R58" s="71"/>
       <c r="S58" s="16">
         <f>I58*J58</f>
@@ -7150,9 +7150,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O59" s="114"/>
-      <c r="P59" s="112"/>
-      <c r="Q59" s="112"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="110"/>
+      <c r="Q59" s="110"/>
       <c r="R59" s="71"/>
       <c r="S59" s="16">
         <f>I59*J59</f>
@@ -7245,9 +7245,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O60" s="114"/>
-      <c r="P60" s="112"/>
-      <c r="Q60" s="112"/>
+      <c r="O60" s="112"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="110"/>
       <c r="R60" s="71"/>
       <c r="S60" s="16">
         <f>I60*J60</f>
@@ -7340,9 +7340,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O61" s="114"/>
-      <c r="P61" s="112"/>
-      <c r="Q61" s="112"/>
+      <c r="O61" s="112"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
       <c r="R61" s="71"/>
       <c r="S61" s="16">
         <f>I61*J61</f>
@@ -7435,9 +7435,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O62" s="114"/>
-      <c r="P62" s="112"/>
-      <c r="Q62" s="112"/>
+      <c r="O62" s="112"/>
+      <c r="P62" s="110"/>
+      <c r="Q62" s="110"/>
       <c r="R62" s="71"/>
       <c r="S62" s="16">
         <f>I62*J62</f>
@@ -7530,9 +7530,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O63" s="114"/>
-      <c r="P63" s="112"/>
-      <c r="Q63" s="112"/>
+      <c r="O63" s="112"/>
+      <c r="P63" s="110"/>
+      <c r="Q63" s="110"/>
       <c r="R63" s="71"/>
       <c r="S63" s="16">
         <f>I63*J63</f>
@@ -7625,9 +7625,9 @@
         <f t="shared" ref="N64:N87" si="11">ROUND(I64*(SUM(J64:M64)),0)</f>
         <v>0</v>
       </c>
-      <c r="O64" s="114"/>
-      <c r="P64" s="112"/>
-      <c r="Q64" s="112"/>
+      <c r="O64" s="112"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="110"/>
       <c r="R64" s="71"/>
       <c r="S64" s="16">
         <f>I64*J64</f>
@@ -7720,9 +7720,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O65" s="114"/>
-      <c r="P65" s="112"/>
-      <c r="Q65" s="112"/>
+      <c r="O65" s="112"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
       <c r="R65" s="71"/>
       <c r="S65" s="16">
         <f>I65*J65</f>
@@ -7815,9 +7815,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O66" s="114"/>
-      <c r="P66" s="112"/>
-      <c r="Q66" s="112"/>
+      <c r="O66" s="112"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
       <c r="R66" s="71"/>
       <c r="S66" s="16">
         <f>I66*J66</f>
@@ -7910,9 +7910,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O67" s="114"/>
-      <c r="P67" s="112"/>
-      <c r="Q67" s="112"/>
+      <c r="O67" s="112"/>
+      <c r="P67" s="110"/>
+      <c r="Q67" s="110"/>
       <c r="R67" s="71"/>
       <c r="S67" s="16">
         <f>I67*J67</f>
@@ -8005,9 +8005,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O68" s="114"/>
-      <c r="P68" s="112"/>
-      <c r="Q68" s="112"/>
+      <c r="O68" s="112"/>
+      <c r="P68" s="110"/>
+      <c r="Q68" s="110"/>
       <c r="R68" s="71"/>
       <c r="S68" s="16">
         <f>I68*J68</f>
@@ -8100,9 +8100,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O69" s="114"/>
-      <c r="P69" s="112"/>
-      <c r="Q69" s="112"/>
+      <c r="O69" s="112"/>
+      <c r="P69" s="110"/>
+      <c r="Q69" s="110"/>
       <c r="R69" s="71"/>
       <c r="S69" s="16">
         <f>I69*J69</f>
@@ -8195,9 +8195,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O70" s="114"/>
-      <c r="P70" s="112"/>
-      <c r="Q70" s="112"/>
+      <c r="O70" s="112"/>
+      <c r="P70" s="110"/>
+      <c r="Q70" s="110"/>
       <c r="R70" s="71"/>
       <c r="S70" s="16">
         <f>I70*J70</f>
@@ -8290,9 +8290,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O71" s="114"/>
-      <c r="P71" s="112"/>
-      <c r="Q71" s="112"/>
+      <c r="O71" s="112"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="110"/>
       <c r="R71" s="71"/>
       <c r="S71" s="16">
         <f>I71*J71</f>
@@ -8385,9 +8385,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O72" s="114"/>
-      <c r="P72" s="112"/>
-      <c r="Q72" s="112"/>
+      <c r="O72" s="112"/>
+      <c r="P72" s="110"/>
+      <c r="Q72" s="110"/>
       <c r="R72" s="71"/>
       <c r="S72" s="16">
         <f>I72*J72</f>
@@ -8480,9 +8480,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O73" s="114"/>
-      <c r="P73" s="112"/>
-      <c r="Q73" s="112"/>
+      <c r="O73" s="112"/>
+      <c r="P73" s="110"/>
+      <c r="Q73" s="110"/>
       <c r="R73" s="71"/>
       <c r="S73" s="16">
         <f>I73*J73</f>
@@ -8575,9 +8575,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O74" s="114"/>
-      <c r="P74" s="112"/>
-      <c r="Q74" s="112"/>
+      <c r="O74" s="112"/>
+      <c r="P74" s="110"/>
+      <c r="Q74" s="110"/>
       <c r="R74" s="71"/>
       <c r="S74" s="16">
         <f>I74*J74</f>
@@ -8670,9 +8670,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O75" s="114"/>
-      <c r="P75" s="112"/>
-      <c r="Q75" s="112"/>
+      <c r="O75" s="112"/>
+      <c r="P75" s="110"/>
+      <c r="Q75" s="110"/>
       <c r="R75" s="71"/>
       <c r="S75" s="16">
         <f>I75*J75</f>
@@ -8765,9 +8765,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O76" s="114"/>
-      <c r="P76" s="112"/>
-      <c r="Q76" s="112"/>
+      <c r="O76" s="112"/>
+      <c r="P76" s="110"/>
+      <c r="Q76" s="110"/>
       <c r="R76" s="71"/>
       <c r="S76" s="16">
         <f>I76*J76</f>
@@ -8860,9 +8860,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O77" s="114"/>
-      <c r="P77" s="112"/>
-      <c r="Q77" s="112"/>
+      <c r="O77" s="112"/>
+      <c r="P77" s="110"/>
+      <c r="Q77" s="110"/>
       <c r="R77" s="71"/>
       <c r="S77" s="16">
         <f>I77*J77</f>
@@ -8955,9 +8955,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O78" s="114"/>
-      <c r="P78" s="112"/>
-      <c r="Q78" s="112"/>
+      <c r="O78" s="112"/>
+      <c r="P78" s="110"/>
+      <c r="Q78" s="110"/>
       <c r="R78" s="71"/>
       <c r="S78" s="16">
         <f>I78*J78</f>
@@ -9050,9 +9050,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O79" s="114"/>
-      <c r="P79" s="112"/>
-      <c r="Q79" s="112"/>
+      <c r="O79" s="112"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="110"/>
       <c r="R79" s="71"/>
       <c r="S79" s="16">
         <f>I79*J79</f>
@@ -9145,9 +9145,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O80" s="114"/>
-      <c r="P80" s="112"/>
-      <c r="Q80" s="112"/>
+      <c r="O80" s="112"/>
+      <c r="P80" s="110"/>
+      <c r="Q80" s="110"/>
       <c r="R80" s="71"/>
       <c r="S80" s="16">
         <f>I80*J80</f>
@@ -9240,9 +9240,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O81" s="114"/>
-      <c r="P81" s="112"/>
-      <c r="Q81" s="112"/>
+      <c r="O81" s="112"/>
+      <c r="P81" s="110"/>
+      <c r="Q81" s="110"/>
       <c r="R81" s="71"/>
       <c r="S81" s="16">
         <f>I81*J81</f>
@@ -9335,9 +9335,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O82" s="114"/>
-      <c r="P82" s="112"/>
-      <c r="Q82" s="112"/>
+      <c r="O82" s="112"/>
+      <c r="P82" s="110"/>
+      <c r="Q82" s="110"/>
       <c r="R82" s="71"/>
       <c r="S82" s="16">
         <f>I82*J82</f>
@@ -9430,9 +9430,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O83" s="114"/>
-      <c r="P83" s="112"/>
-      <c r="Q83" s="112"/>
+      <c r="O83" s="112"/>
+      <c r="P83" s="110"/>
+      <c r="Q83" s="110"/>
       <c r="R83" s="71"/>
       <c r="S83" s="16">
         <f>I83*J83</f>
@@ -9525,9 +9525,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O84" s="114"/>
-      <c r="P84" s="112"/>
-      <c r="Q84" s="112"/>
+      <c r="O84" s="112"/>
+      <c r="P84" s="110"/>
+      <c r="Q84" s="110"/>
       <c r="R84" s="71"/>
       <c r="S84" s="16">
         <f>I84*J84</f>
@@ -9620,9 +9620,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O85" s="114"/>
-      <c r="P85" s="112"/>
-      <c r="Q85" s="112"/>
+      <c r="O85" s="112"/>
+      <c r="P85" s="110"/>
+      <c r="Q85" s="110"/>
       <c r="R85" s="71"/>
       <c r="S85" s="16">
         <f>I85*J85</f>
@@ -9715,9 +9715,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O86" s="114"/>
-      <c r="P86" s="112"/>
-      <c r="Q86" s="112"/>
+      <c r="O86" s="112"/>
+      <c r="P86" s="110"/>
+      <c r="Q86" s="110"/>
       <c r="R86" s="71"/>
       <c r="S86" s="16">
         <f>I86*J86</f>
@@ -9810,9 +9810,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O87" s="114"/>
-      <c r="P87" s="112"/>
-      <c r="Q87" s="112"/>
+      <c r="O87" s="112"/>
+      <c r="P87" s="110"/>
+      <c r="Q87" s="110"/>
       <c r="R87" s="71"/>
       <c r="S87" s="16">
         <f>I87*J87</f>
@@ -9905,9 +9905,9 @@
         <f t="shared" ref="N88:N95" si="21">ROUND(I88*(SUM(J88:M88)),0)</f>
         <v>0</v>
       </c>
-      <c r="O88" s="114"/>
-      <c r="P88" s="112"/>
-      <c r="Q88" s="112"/>
+      <c r="O88" s="112"/>
+      <c r="P88" s="110"/>
+      <c r="Q88" s="110"/>
       <c r="R88" s="71"/>
       <c r="S88" s="16">
         <f>I88*J88</f>
@@ -10000,9 +10000,9 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O89" s="114"/>
-      <c r="P89" s="112"/>
-      <c r="Q89" s="112"/>
+      <c r="O89" s="112"/>
+      <c r="P89" s="110"/>
+      <c r="Q89" s="110"/>
       <c r="R89" s="71"/>
       <c r="S89" s="16">
         <f>I89*J89</f>
@@ -10095,9 +10095,9 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O90" s="114"/>
-      <c r="P90" s="112"/>
-      <c r="Q90" s="112"/>
+      <c r="O90" s="112"/>
+      <c r="P90" s="110"/>
+      <c r="Q90" s="110"/>
       <c r="R90" s="71"/>
       <c r="S90" s="16">
         <f>I90*J90</f>
@@ -10190,9 +10190,9 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O91" s="114"/>
-      <c r="P91" s="112"/>
-      <c r="Q91" s="112"/>
+      <c r="O91" s="112"/>
+      <c r="P91" s="110"/>
+      <c r="Q91" s="110"/>
       <c r="R91" s="71"/>
       <c r="S91" s="16">
         <f>I91*J91</f>
@@ -10285,9 +10285,9 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O92" s="114"/>
-      <c r="P92" s="112"/>
-      <c r="Q92" s="112"/>
+      <c r="O92" s="112"/>
+      <c r="P92" s="110"/>
+      <c r="Q92" s="110"/>
       <c r="R92" s="71"/>
       <c r="S92" s="16">
         <f>I92*J92</f>
@@ -10380,9 +10380,9 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O93" s="114"/>
-      <c r="P93" s="112"/>
-      <c r="Q93" s="112"/>
+      <c r="O93" s="112"/>
+      <c r="P93" s="110"/>
+      <c r="Q93" s="110"/>
       <c r="R93" s="71"/>
       <c r="S93" s="16">
         <f>I93*J93</f>
@@ -10475,9 +10475,9 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O94" s="114"/>
-      <c r="P94" s="112"/>
-      <c r="Q94" s="112"/>
+      <c r="O94" s="112"/>
+      <c r="P94" s="110"/>
+      <c r="Q94" s="110"/>
       <c r="R94" s="71"/>
       <c r="S94" s="16">
         <f>I94*J94</f>
@@ -10570,9 +10570,9 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O95" s="114"/>
-      <c r="P95" s="112"/>
-      <c r="Q95" s="112"/>
+      <c r="O95" s="112"/>
+      <c r="P95" s="110"/>
+      <c r="Q95" s="110"/>
       <c r="R95" s="71"/>
       <c r="S95" s="16">
         <f>I95*J95</f>
@@ -10665,9 +10665,9 @@
         <f t="shared" ref="N96:N103" si="22">ROUND(I96*(SUM(J96:M96)),0)</f>
         <v>0</v>
       </c>
-      <c r="O96" s="114"/>
-      <c r="P96" s="112"/>
-      <c r="Q96" s="112"/>
+      <c r="O96" s="112"/>
+      <c r="P96" s="110"/>
+      <c r="Q96" s="110"/>
       <c r="R96" s="71"/>
       <c r="S96" s="16">
         <f>I96*J96</f>
@@ -10760,9 +10760,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O97" s="114"/>
-      <c r="P97" s="112"/>
-      <c r="Q97" s="112"/>
+      <c r="O97" s="112"/>
+      <c r="P97" s="110"/>
+      <c r="Q97" s="110"/>
       <c r="R97" s="71"/>
       <c r="S97" s="16">
         <f>I97*J97</f>
@@ -10855,9 +10855,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O98" s="114"/>
-      <c r="P98" s="112"/>
-      <c r="Q98" s="112"/>
+      <c r="O98" s="112"/>
+      <c r="P98" s="110"/>
+      <c r="Q98" s="110"/>
       <c r="R98" s="71"/>
       <c r="S98" s="16">
         <f>I98*J98</f>
@@ -10950,9 +10950,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O99" s="114"/>
-      <c r="P99" s="112"/>
-      <c r="Q99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="110"/>
+      <c r="Q99" s="110"/>
       <c r="R99" s="71"/>
       <c r="S99" s="16">
         <f>I99*J99</f>
@@ -11045,9 +11045,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O100" s="114"/>
-      <c r="P100" s="112"/>
-      <c r="Q100" s="112"/>
+      <c r="O100" s="112"/>
+      <c r="P100" s="110"/>
+      <c r="Q100" s="110"/>
       <c r="R100" s="71"/>
       <c r="S100" s="16">
         <f>I100*J100</f>
@@ -11140,9 +11140,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O101" s="114"/>
-      <c r="P101" s="112"/>
-      <c r="Q101" s="112"/>
+      <c r="O101" s="112"/>
+      <c r="P101" s="110"/>
+      <c r="Q101" s="110"/>
       <c r="R101" s="71"/>
       <c r="S101" s="16">
         <f>I101*J101</f>
@@ -11235,9 +11235,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O102" s="114"/>
-      <c r="P102" s="112"/>
-      <c r="Q102" s="112"/>
+      <c r="O102" s="112"/>
+      <c r="P102" s="110"/>
+      <c r="Q102" s="110"/>
       <c r="R102" s="71"/>
       <c r="S102" s="16">
         <f>I102*J102</f>
@@ -11330,9 +11330,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O103" s="114"/>
-      <c r="P103" s="112"/>
-      <c r="Q103" s="112"/>
+      <c r="O103" s="112"/>
+      <c r="P103" s="110"/>
+      <c r="Q103" s="110"/>
       <c r="R103" s="71"/>
       <c r="S103" s="16">
         <f>I103*J103</f>
@@ -11425,9 +11425,9 @@
         <f t="shared" ref="N104:N105" si="23">ROUND(I104*(SUM(J104:M104)),0)</f>
         <v>0</v>
       </c>
-      <c r="O104" s="114"/>
-      <c r="P104" s="112"/>
-      <c r="Q104" s="112"/>
+      <c r="O104" s="112"/>
+      <c r="P104" s="110"/>
+      <c r="Q104" s="110"/>
       <c r="R104" s="71"/>
       <c r="S104" s="16">
         <f>I104*J104</f>
@@ -11520,9 +11520,9 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="O105" s="114"/>
-      <c r="P105" s="112"/>
-      <c r="Q105" s="112"/>
+      <c r="O105" s="112"/>
+      <c r="P105" s="110"/>
+      <c r="Q105" s="110"/>
       <c r="R105" s="71"/>
       <c r="S105" s="16">
         <f>I105*J105</f>
@@ -11615,9 +11615,9 @@
         <f t="shared" ref="N106" si="24">ROUND(I106*(SUM(J106:M106)),0)</f>
         <v>0</v>
       </c>
-      <c r="O106" s="114"/>
-      <c r="P106" s="112"/>
-      <c r="Q106" s="112"/>
+      <c r="O106" s="112"/>
+      <c r="P106" s="110"/>
+      <c r="Q106" s="110"/>
       <c r="R106" s="71"/>
       <c r="S106" s="16">
         <f>I106*J106</f>
@@ -11710,9 +11710,9 @@
         <f t="shared" ref="N107:N108" si="25">ROUND(I107*(SUM(J107:M107)),0)</f>
         <v>0</v>
       </c>
-      <c r="O107" s="114"/>
-      <c r="P107" s="112"/>
-      <c r="Q107" s="112"/>
+      <c r="O107" s="112"/>
+      <c r="P107" s="110"/>
+      <c r="Q107" s="110"/>
       <c r="R107" s="71"/>
       <c r="S107" s="16">
         <f>I107*J107</f>
@@ -11805,9 +11805,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O108" s="114"/>
-      <c r="P108" s="112"/>
-      <c r="Q108" s="112"/>
+      <c r="O108" s="112"/>
+      <c r="P108" s="110"/>
+      <c r="Q108" s="110"/>
       <c r="R108" s="71"/>
       <c r="S108" s="16">
         <f>I108*J108</f>
@@ -11900,9 +11900,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O109" s="114"/>
-      <c r="P109" s="112"/>
-      <c r="Q109" s="112"/>
+      <c r="O109" s="112"/>
+      <c r="P109" s="110"/>
+      <c r="Q109" s="110"/>
       <c r="R109" s="71"/>
       <c r="S109" s="16">
         <f>I109*J109</f>
@@ -11995,9 +11995,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O110" s="114"/>
-      <c r="P110" s="112"/>
-      <c r="Q110" s="112"/>
+      <c r="O110" s="112"/>
+      <c r="P110" s="110"/>
+      <c r="Q110" s="110"/>
       <c r="R110" s="71"/>
       <c r="S110" s="16">
         <f>I110*J110</f>
@@ -12090,9 +12090,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O111" s="114"/>
-      <c r="P111" s="112"/>
-      <c r="Q111" s="112"/>
+      <c r="O111" s="112"/>
+      <c r="P111" s="110"/>
+      <c r="Q111" s="110"/>
       <c r="R111" s="71"/>
       <c r="S111" s="16">
         <f>I111*J111</f>
@@ -12185,9 +12185,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O112" s="114"/>
-      <c r="P112" s="112"/>
-      <c r="Q112" s="112"/>
+      <c r="O112" s="112"/>
+      <c r="P112" s="110"/>
+      <c r="Q112" s="110"/>
       <c r="R112" s="71"/>
       <c r="S112" s="16">
         <f>I112*J112</f>
@@ -12280,9 +12280,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O113" s="114"/>
-      <c r="P113" s="112"/>
-      <c r="Q113" s="112"/>
+      <c r="O113" s="112"/>
+      <c r="P113" s="110"/>
+      <c r="Q113" s="110"/>
       <c r="R113" s="71"/>
       <c r="S113" s="16">
         <f>I113*J113</f>
@@ -12375,9 +12375,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O114" s="114"/>
-      <c r="P114" s="112"/>
-      <c r="Q114" s="112"/>
+      <c r="O114" s="112"/>
+      <c r="P114" s="110"/>
+      <c r="Q114" s="110"/>
       <c r="R114" s="71"/>
       <c r="S114" s="16">
         <f>I114*J114</f>
@@ -12470,9 +12470,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O115" s="114"/>
-      <c r="P115" s="112"/>
-      <c r="Q115" s="112"/>
+      <c r="O115" s="112"/>
+      <c r="P115" s="110"/>
+      <c r="Q115" s="110"/>
       <c r="R115" s="71"/>
       <c r="S115" s="16">
         <f>I115*J115</f>
@@ -12565,9 +12565,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O116" s="114"/>
-      <c r="P116" s="112"/>
-      <c r="Q116" s="112"/>
+      <c r="O116" s="112"/>
+      <c r="P116" s="110"/>
+      <c r="Q116" s="110"/>
       <c r="R116" s="71"/>
       <c r="S116" s="16">
         <f>I116*J116</f>
@@ -12660,9 +12660,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O117" s="114"/>
-      <c r="P117" s="112"/>
-      <c r="Q117" s="112"/>
+      <c r="O117" s="112"/>
+      <c r="P117" s="110"/>
+      <c r="Q117" s="110"/>
       <c r="R117" s="71"/>
       <c r="S117" s="16">
         <f>I117*J117</f>
@@ -12755,9 +12755,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O118" s="114"/>
-      <c r="P118" s="112"/>
-      <c r="Q118" s="112"/>
+      <c r="O118" s="112"/>
+      <c r="P118" s="110"/>
+      <c r="Q118" s="110"/>
       <c r="R118" s="71"/>
       <c r="S118" s="16">
         <f>I118*J118</f>
@@ -12850,9 +12850,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O119" s="114"/>
-      <c r="P119" s="112"/>
-      <c r="Q119" s="112"/>
+      <c r="O119" s="112"/>
+      <c r="P119" s="110"/>
+      <c r="Q119" s="110"/>
       <c r="R119" s="71"/>
       <c r="S119" s="16">
         <f>I119*J119</f>
@@ -12945,9 +12945,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O120" s="114"/>
-      <c r="P120" s="112"/>
-      <c r="Q120" s="112"/>
+      <c r="O120" s="112"/>
+      <c r="P120" s="110"/>
+      <c r="Q120" s="110"/>
       <c r="R120" s="71"/>
       <c r="S120" s="16">
         <f>I120*J120</f>
@@ -13040,9 +13040,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O121" s="114"/>
-      <c r="P121" s="112"/>
-      <c r="Q121" s="112"/>
+      <c r="O121" s="112"/>
+      <c r="P121" s="110"/>
+      <c r="Q121" s="110"/>
       <c r="R121" s="71"/>
       <c r="S121" s="16">
         <f>I121*J121</f>
@@ -13135,9 +13135,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O122" s="114"/>
-      <c r="P122" s="112"/>
-      <c r="Q122" s="112"/>
+      <c r="O122" s="112"/>
+      <c r="P122" s="110"/>
+      <c r="Q122" s="110"/>
       <c r="R122" s="71"/>
       <c r="S122" s="16">
         <f>I122*J122</f>
@@ -13230,9 +13230,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O123" s="114"/>
-      <c r="P123" s="112"/>
-      <c r="Q123" s="112"/>
+      <c r="O123" s="112"/>
+      <c r="P123" s="110"/>
+      <c r="Q123" s="110"/>
       <c r="R123" s="71"/>
       <c r="S123" s="16">
         <f>I123*J123</f>
@@ -13325,9 +13325,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O124" s="114"/>
-      <c r="P124" s="112"/>
-      <c r="Q124" s="112"/>
+      <c r="O124" s="112"/>
+      <c r="P124" s="110"/>
+      <c r="Q124" s="110"/>
       <c r="R124" s="71"/>
       <c r="S124" s="16">
         <f>I124*J124</f>
@@ -13420,9 +13420,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O125" s="114"/>
-      <c r="P125" s="112"/>
-      <c r="Q125" s="112"/>
+      <c r="O125" s="112"/>
+      <c r="P125" s="110"/>
+      <c r="Q125" s="110"/>
       <c r="R125" s="71"/>
       <c r="S125" s="16">
         <f>I125*J125</f>
@@ -13515,9 +13515,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O126" s="114"/>
-      <c r="P126" s="112"/>
-      <c r="Q126" s="112"/>
+      <c r="O126" s="112"/>
+      <c r="P126" s="110"/>
+      <c r="Q126" s="110"/>
       <c r="R126" s="71"/>
       <c r="S126" s="16">
         <f>I126*J126</f>
@@ -13610,9 +13610,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O127" s="114"/>
-      <c r="P127" s="112"/>
-      <c r="Q127" s="112"/>
+      <c r="O127" s="112"/>
+      <c r="P127" s="110"/>
+      <c r="Q127" s="110"/>
       <c r="R127" s="71"/>
       <c r="S127" s="16">
         <f>I127*J127</f>
@@ -13705,9 +13705,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O128" s="114"/>
-      <c r="P128" s="112"/>
-      <c r="Q128" s="112"/>
+      <c r="O128" s="112"/>
+      <c r="P128" s="110"/>
+      <c r="Q128" s="110"/>
       <c r="R128" s="71"/>
       <c r="S128" s="16">
         <f>I128*J128</f>
@@ -13800,9 +13800,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O129" s="114"/>
-      <c r="P129" s="112"/>
-      <c r="Q129" s="112"/>
+      <c r="O129" s="112"/>
+      <c r="P129" s="110"/>
+      <c r="Q129" s="110"/>
       <c r="R129" s="71"/>
       <c r="S129" s="16">
         <f>I129*J129</f>
@@ -13895,9 +13895,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O130" s="114"/>
-      <c r="P130" s="112"/>
-      <c r="Q130" s="112"/>
+      <c r="O130" s="112"/>
+      <c r="P130" s="110"/>
+      <c r="Q130" s="110"/>
       <c r="R130" s="71"/>
       <c r="S130" s="16">
         <f>I130*J130</f>
@@ -13990,9 +13990,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O131" s="114"/>
-      <c r="P131" s="112"/>
-      <c r="Q131" s="112"/>
+      <c r="O131" s="112"/>
+      <c r="P131" s="110"/>
+      <c r="Q131" s="110"/>
       <c r="R131" s="71"/>
       <c r="S131" s="16">
         <f>I131*J131</f>
@@ -14085,9 +14085,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O132" s="114"/>
-      <c r="P132" s="112"/>
-      <c r="Q132" s="112"/>
+      <c r="O132" s="112"/>
+      <c r="P132" s="110"/>
+      <c r="Q132" s="110"/>
       <c r="R132" s="71"/>
       <c r="S132" s="16">
         <f>I132*J132</f>
@@ -14180,9 +14180,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O133" s="114"/>
-      <c r="P133" s="112"/>
-      <c r="Q133" s="112"/>
+      <c r="O133" s="112"/>
+      <c r="P133" s="110"/>
+      <c r="Q133" s="110"/>
       <c r="R133" s="71"/>
       <c r="S133" s="16">
         <f>I133*J133</f>
@@ -14275,9 +14275,9 @@
         <f t="shared" ref="N134:N141" si="26">ROUND(I134*(SUM(J134:M134)),0)</f>
         <v>0</v>
       </c>
-      <c r="O134" s="114"/>
-      <c r="P134" s="112"/>
-      <c r="Q134" s="112"/>
+      <c r="O134" s="112"/>
+      <c r="P134" s="110"/>
+      <c r="Q134" s="110"/>
       <c r="R134" s="71"/>
       <c r="S134" s="16">
         <f>I134*J134</f>
@@ -14370,9 +14370,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O135" s="114"/>
-      <c r="P135" s="112"/>
-      <c r="Q135" s="112"/>
+      <c r="O135" s="112"/>
+      <c r="P135" s="110"/>
+      <c r="Q135" s="110"/>
       <c r="R135" s="71"/>
       <c r="S135" s="16">
         <f>I135*J135</f>
@@ -14465,9 +14465,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O136" s="114"/>
-      <c r="P136" s="112"/>
-      <c r="Q136" s="112"/>
+      <c r="O136" s="112"/>
+      <c r="P136" s="110"/>
+      <c r="Q136" s="110"/>
       <c r="R136" s="71"/>
       <c r="S136" s="16">
         <f>I136*J136</f>
@@ -14560,9 +14560,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O137" s="114"/>
-      <c r="P137" s="112"/>
-      <c r="Q137" s="112"/>
+      <c r="O137" s="112"/>
+      <c r="P137" s="110"/>
+      <c r="Q137" s="110"/>
       <c r="R137" s="71"/>
       <c r="S137" s="16">
         <f>I137*J137</f>
@@ -14655,9 +14655,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O138" s="114"/>
-      <c r="P138" s="112"/>
-      <c r="Q138" s="112"/>
+      <c r="O138" s="112"/>
+      <c r="P138" s="110"/>
+      <c r="Q138" s="110"/>
       <c r="R138" s="71"/>
       <c r="S138" s="16">
         <f>I138*J138</f>
@@ -14750,9 +14750,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O139" s="114"/>
-      <c r="P139" s="112"/>
-      <c r="Q139" s="112"/>
+      <c r="O139" s="112"/>
+      <c r="P139" s="110"/>
+      <c r="Q139" s="110"/>
       <c r="R139" s="71"/>
       <c r="S139" s="16">
         <f>I139*J139</f>
@@ -14845,9 +14845,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O140" s="114"/>
-      <c r="P140" s="112"/>
-      <c r="Q140" s="112"/>
+      <c r="O140" s="112"/>
+      <c r="P140" s="110"/>
+      <c r="Q140" s="110"/>
       <c r="R140" s="71"/>
       <c r="S140" s="16">
         <f>I140*J140</f>
@@ -14940,9 +14940,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O141" s="114"/>
-      <c r="P141" s="112"/>
-      <c r="Q141" s="112"/>
+      <c r="O141" s="112"/>
+      <c r="P141" s="110"/>
+      <c r="Q141" s="110"/>
       <c r="R141" s="71"/>
       <c r="S141" s="16">
         <f>I141*J141</f>
@@ -15035,9 +15035,9 @@
         <f t="shared" ref="N142:N149" si="36">ROUND(I142*(SUM(J142:M142)),0)</f>
         <v>0</v>
       </c>
-      <c r="O142" s="114"/>
-      <c r="P142" s="112"/>
-      <c r="Q142" s="112"/>
+      <c r="O142" s="112"/>
+      <c r="P142" s="110"/>
+      <c r="Q142" s="110"/>
       <c r="R142" s="71"/>
       <c r="S142" s="16">
         <f>I142*J142</f>
@@ -15130,9 +15130,9 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O143" s="114"/>
-      <c r="P143" s="112"/>
-      <c r="Q143" s="112"/>
+      <c r="O143" s="112"/>
+      <c r="P143" s="110"/>
+      <c r="Q143" s="110"/>
       <c r="R143" s="71"/>
       <c r="S143" s="16">
         <f>I143*J143</f>
@@ -15225,9 +15225,9 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O144" s="114"/>
-      <c r="P144" s="112"/>
-      <c r="Q144" s="112"/>
+      <c r="O144" s="112"/>
+      <c r="P144" s="110"/>
+      <c r="Q144" s="110"/>
       <c r="R144" s="71"/>
       <c r="S144" s="16">
         <f>I144*J144</f>
@@ -15320,9 +15320,9 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O145" s="114"/>
-      <c r="P145" s="112"/>
-      <c r="Q145" s="112"/>
+      <c r="O145" s="112"/>
+      <c r="P145" s="110"/>
+      <c r="Q145" s="110"/>
       <c r="R145" s="71"/>
       <c r="S145" s="16">
         <f>I145*J145</f>
@@ -15415,9 +15415,9 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O146" s="114"/>
-      <c r="P146" s="112"/>
-      <c r="Q146" s="112"/>
+      <c r="O146" s="112"/>
+      <c r="P146" s="110"/>
+      <c r="Q146" s="110"/>
       <c r="R146" s="71"/>
       <c r="S146" s="16">
         <f>I146*J146</f>
@@ -15510,9 +15510,9 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O147" s="114"/>
-      <c r="P147" s="112"/>
-      <c r="Q147" s="112"/>
+      <c r="O147" s="112"/>
+      <c r="P147" s="110"/>
+      <c r="Q147" s="110"/>
       <c r="R147" s="71"/>
       <c r="S147" s="16">
         <f>I147*J147</f>
@@ -15605,9 +15605,9 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O148" s="114"/>
-      <c r="P148" s="112"/>
-      <c r="Q148" s="112"/>
+      <c r="O148" s="112"/>
+      <c r="P148" s="110"/>
+      <c r="Q148" s="110"/>
       <c r="R148" s="71"/>
       <c r="S148" s="16">
         <f>I148*J148</f>
@@ -15700,9 +15700,9 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O149" s="114"/>
-      <c r="P149" s="112"/>
-      <c r="Q149" s="112"/>
+      <c r="O149" s="112"/>
+      <c r="P149" s="110"/>
+      <c r="Q149" s="110"/>
       <c r="R149" s="71"/>
       <c r="S149" s="16">
         <f>I149*J149</f>
@@ -15795,9 +15795,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O150" s="114"/>
-      <c r="P150" s="112"/>
-      <c r="Q150" s="112"/>
+      <c r="O150" s="112"/>
+      <c r="P150" s="110"/>
+      <c r="Q150" s="110"/>
       <c r="R150" s="71"/>
       <c r="S150" s="16">
         <f>I150*J150</f>
@@ -15890,9 +15890,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O151" s="114"/>
-      <c r="P151" s="112"/>
-      <c r="Q151" s="112"/>
+      <c r="O151" s="112"/>
+      <c r="P151" s="110"/>
+      <c r="Q151" s="110"/>
       <c r="R151" s="71"/>
       <c r="S151" s="16">
         <f>I151*J151</f>
@@ -15985,9 +15985,9 @@
         <f t="shared" ref="N152" si="40">ROUND(I152*(SUM(J152:M152)),0)</f>
         <v>0</v>
       </c>
-      <c r="O152" s="114"/>
-      <c r="P152" s="112"/>
-      <c r="Q152" s="112"/>
+      <c r="O152" s="112"/>
+      <c r="P152" s="110"/>
+      <c r="Q152" s="110"/>
       <c r="R152" s="71"/>
       <c r="S152" s="16">
         <f>I152*J152</f>
@@ -16080,9 +16080,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O153" s="114"/>
-      <c r="P153" s="112"/>
-      <c r="Q153" s="112"/>
+      <c r="O153" s="112"/>
+      <c r="P153" s="110"/>
+      <c r="Q153" s="110"/>
       <c r="R153" s="71"/>
       <c r="S153" s="16">
         <f>I153*J153</f>
@@ -16175,9 +16175,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O154" s="114"/>
-      <c r="P154" s="112"/>
-      <c r="Q154" s="112"/>
+      <c r="O154" s="112"/>
+      <c r="P154" s="110"/>
+      <c r="Q154" s="110"/>
       <c r="R154" s="71"/>
       <c r="S154" s="16">
         <f>I154*J154</f>
@@ -16270,9 +16270,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O155" s="114"/>
-      <c r="P155" s="112"/>
-      <c r="Q155" s="112"/>
+      <c r="O155" s="112"/>
+      <c r="P155" s="110"/>
+      <c r="Q155" s="110"/>
       <c r="R155" s="71"/>
       <c r="S155" s="16">
         <f>I155*J155</f>
@@ -16435,10 +16435,10 @@
       <c r="O157"/>
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B158" s="134" t="s">
+      <c r="B158" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="C158" s="134"/>
+      <c r="C158" s="133"/>
       <c r="D158" s="39"/>
       <c r="E158" s="39"/>
       <c r="F158" s="39"/>
@@ -16519,15 +16519,15 @@
       <c r="AC163" s="39"/>
     </row>
     <row r="164" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B164" s="135" t="s">
+      <c r="B164" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="C164" s="135"/>
-      <c r="S164" s="133"/>
-      <c r="T164" s="133"/>
-      <c r="U164" s="133"/>
-      <c r="V164" s="133"/>
-      <c r="W164" s="133"/>
+      <c r="C164" s="134"/>
+      <c r="S164" s="132"/>
+      <c r="T164" s="132"/>
+      <c r="U164" s="132"/>
+      <c r="V164" s="132"/>
+      <c r="W164" s="132"/>
       <c r="AC164" s="39"/>
     </row>
     <row r="165" spans="2:29" x14ac:dyDescent="0.2">
@@ -16535,11 +16535,11 @@
         <v>82</v>
       </c>
       <c r="C165" s="60"/>
-      <c r="S165" s="133"/>
-      <c r="T165" s="133"/>
-      <c r="U165" s="133"/>
-      <c r="V165" s="133"/>
-      <c r="W165" s="133"/>
+      <c r="S165" s="132"/>
+      <c r="T165" s="132"/>
+      <c r="U165" s="132"/>
+      <c r="V165" s="132"/>
+      <c r="W165" s="132"/>
     </row>
     <row r="166" spans="2:29" x14ac:dyDescent="0.2">
       <c r="X166" s="39"/>
@@ -16914,295 +16914,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="140"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="140"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
       <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:36" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="141"/>
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="141"/>
       <c r="AJ3" s="2"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="147" t="s">
+      <c r="F5" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="148" t="s">
+      <c r="H5" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="150" t="s">
+      <c r="I5" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="136" t="s">
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="O5" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="156"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="155"/>
       <c r="R5" s="84"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="162"/>
-      <c r="Z5" s="162"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="165" t="s">
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="AE5" s="165" t="s">
+      <c r="AE5" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="116" t="s">
+      <c r="AF5" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="118" t="s">
+      <c r="AG5" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="AH5" s="158" t="s">
+      <c r="AH5" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="AI5" s="159"/>
+      <c r="AI5" s="158"/>
       <c r="AJ5" s="3"/>
     </row>
     <row r="6" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="143"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="136" t="s">
+      <c r="A6" s="142"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="138" t="s">
+      <c r="N6" s="136"/>
+      <c r="O6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="P6" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="Q6" s="137" t="s">
         <v>24</v>
       </c>
       <c r="R6" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="S6" s="115"/>
-      <c r="T6" s="118" t="s">
+      <c r="S6" s="114"/>
+      <c r="T6" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="130" t="s">
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="131" t="s">
+      <c r="Y6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="131" t="s">
+      <c r="Z6" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="132" t="s">
+      <c r="AA6" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="132" t="s">
+      <c r="AB6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="120" t="s">
+      <c r="AC6" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="165"/>
-      <c r="AF6" s="117"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="160"/>
-      <c r="AI6" s="161"/>
+      <c r="AD6" s="164"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="117"/>
+      <c r="AH6" s="159"/>
+      <c r="AI6" s="160"/>
       <c r="AJ6" s="3"/>
     </row>
     <row r="7" spans="1:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="143"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
       <c r="R7" s="85" t="s">
         <v>148</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="118"/>
+      <c r="T7" s="117"/>
       <c r="U7" s="4" t="s">
         <v>30</v>
       </c>
@@ -17212,18 +17212,18 @@
       <c r="W7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="132"/>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="117"/>
-      <c r="AG7" s="118"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="161"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="164"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="117"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="160"/>
       <c r="AJ7" s="3"/>
     </row>
     <row r="8" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17248,9 +17248,9 @@
         <f>I8*(SUM(J8:M8))*80%</f>
         <v>0</v>
       </c>
-      <c r="O8" s="114"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
       <c r="R8" s="15"/>
       <c r="S8" s="16">
         <f>I8*J8</f>
@@ -17334,9 +17334,9 @@
         <f t="shared" ref="N9:N22" si="0">I9*(SUM(J9:M9))*80%</f>
         <v>0</v>
       </c>
-      <c r="O9" s="114"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
       <c r="R9" s="15"/>
       <c r="S9" s="16">
         <f>I9*J9</f>
@@ -17408,9 +17408,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="114"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
       <c r="R10" s="15"/>
       <c r="S10" s="16">
         <f>I10*J10</f>
@@ -17482,9 +17482,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="114"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
       <c r="R11" s="15"/>
       <c r="S11" s="16">
         <f>I11*J11</f>
@@ -17556,9 +17556,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="114"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
       <c r="R12" s="15"/>
       <c r="S12" s="16">
         <f>I12*J12</f>
@@ -17630,9 +17630,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="114"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
       <c r="R13" s="15"/>
       <c r="S13" s="16">
         <f>I13*J13</f>
@@ -17704,9 +17704,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="114"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
       <c r="R14" s="15"/>
       <c r="S14" s="16">
         <f>I14*J14</f>
@@ -17778,9 +17778,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="114"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
       <c r="R15" s="15"/>
       <c r="S15" s="16">
         <f>I15*J15</f>
@@ -17852,9 +17852,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="114"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
       <c r="R16" s="15"/>
       <c r="S16" s="16">
         <f>I16*J16</f>
@@ -17926,9 +17926,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="114"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="15"/>
       <c r="S17" s="16">
         <f>I17*J17</f>
@@ -18000,9 +18000,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O18" s="114"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
       <c r="R18" s="15"/>
       <c r="S18" s="16">
         <f>I18*J18</f>
@@ -18074,9 +18074,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O19" s="114"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
       <c r="R19" s="15"/>
       <c r="S19" s="16">
         <f>I19*J19</f>
@@ -18160,9 +18160,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="114"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
       <c r="R20" s="15"/>
       <c r="S20" s="16">
         <f>I20*J20</f>
@@ -18234,9 +18234,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="114"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
       <c r="R21" s="15"/>
       <c r="S21" s="16">
         <f>I21*J21</f>
@@ -18308,9 +18308,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22" s="114"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
       <c r="R22" s="15"/>
       <c r="S22" s="16">
         <f>I22*J22</f>
@@ -18461,10 +18461,10 @@
       <c r="AJ24" s="81"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="134"/>
+      <c r="C25" s="133"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -18479,11 +18479,11 @@
       <c r="P25" s="47"/>
       <c r="Q25" s="47"/>
       <c r="R25" s="47"/>
-      <c r="S25" s="163"/>
-      <c r="T25" s="163"/>
-      <c r="U25" s="163"/>
-      <c r="V25" s="163"/>
-      <c r="W25" s="163"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="162"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="162"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
       <c r="Z25" s="39"/>
@@ -18520,12 +18520,12 @@
       <c r="Z26" s="39"/>
       <c r="AA26" s="39"/>
       <c r="AB26" s="39"/>
-      <c r="AD26" s="164" t="s">
+      <c r="AD26" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="AE26" s="164"/>
-      <c r="AF26" s="164"/>
-      <c r="AG26" s="164"/>
+      <c r="AE26" s="163"/>
+      <c r="AF26" s="163"/>
+      <c r="AG26" s="163"/>
       <c r="AH26" s="39"/>
       <c r="AI26" s="51"/>
     </row>
@@ -18605,34 +18605,34 @@
       <c r="AG30" s="54"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="135"/>
+      <c r="C31" s="134"/>
       <c r="AC31" s="39"/>
-      <c r="AD31" s="135" t="s">
+      <c r="AD31" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="AE31" s="135"/>
-      <c r="AF31" s="135"/>
-      <c r="AG31" s="135"/>
+      <c r="AE31" s="134"/>
+      <c r="AF31" s="134"/>
+      <c r="AG31" s="134"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="60"/>
-      <c r="S32" s="133"/>
-      <c r="T32" s="133"/>
-      <c r="U32" s="133"/>
-      <c r="V32" s="133"/>
-      <c r="W32" s="133"/>
-      <c r="AD32" s="135" t="s">
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="AD32" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="AE32" s="135"/>
-      <c r="AF32" s="135"/>
-      <c r="AG32" s="135"/>
+      <c r="AE32" s="134"/>
+      <c r="AF32" s="134"/>
+      <c r="AG32" s="134"/>
     </row>
     <row r="33" spans="20:35" x14ac:dyDescent="0.2">
       <c r="X33" s="39"/>
@@ -19122,10 +19122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5DB31B-7640-D048-A25C-DD92802A63C1}">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11:T12"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19152,300 +19152,277 @@
     <col min="26" max="26" width="13.5" customWidth="1"/>
     <col min="27" max="27" width="12.5" customWidth="1"/>
     <col min="28" max="28" width="13.5" customWidth="1"/>
-    <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="32" width="11.5" customWidth="1"/>
-    <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="3.5" customWidth="1"/>
-    <col min="35" max="35" width="17" customWidth="1"/>
-    <col min="36" max="36" width="7.33203125" customWidth="1"/>
+    <col min="29" max="30" width="13" customWidth="1"/>
+    <col min="31" max="31" width="3.5" customWidth="1"/>
+    <col min="32" max="32" width="17" customWidth="1"/>
+    <col min="33" max="33" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:33" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="86"/>
-    </row>
-    <row r="2" spans="1:36" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="86"/>
-    </row>
-    <row r="3" spans="1:36" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="87"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="86"/>
+    </row>
+    <row r="2" spans="1:33" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="86"/>
+    </row>
+    <row r="3" spans="1:33" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="141"/>
+      <c r="AG3" s="87"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="143" t="s">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="147" t="s">
+      <c r="F5" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="148" t="s">
+      <c r="H5" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="150" t="s">
+      <c r="I5" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="136" t="s">
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="O5" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="156"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="155"/>
       <c r="R5" s="84"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="162"/>
-      <c r="Z5" s="162"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE5" s="165" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF5" s="116" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG5" s="118" t="s">
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="AH5" s="158" t="s">
+      <c r="AE5" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="AI5" s="159"/>
-      <c r="AJ5" s="104"/>
-    </row>
-    <row r="6" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="143"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="136" t="s">
+      <c r="AF5" s="158"/>
+      <c r="AG5" s="104"/>
+    </row>
+    <row r="6" spans="1:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="142"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="138" t="s">
+      <c r="N6" s="136"/>
+      <c r="O6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="P6" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="Q6" s="137" t="s">
         <v>24</v>
       </c>
       <c r="R6" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="S6" s="115"/>
-      <c r="T6" s="118" t="s">
+      <c r="S6" s="114"/>
+      <c r="T6" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="130" t="s">
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="131" t="s">
+      <c r="Y6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="131" t="s">
+      <c r="Z6" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="132" t="s">
+      <c r="AA6" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="132" t="s">
+      <c r="AB6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="120" t="s">
+      <c r="AC6" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="165"/>
-      <c r="AF6" s="117"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="160"/>
-      <c r="AI6" s="161"/>
-      <c r="AJ6" s="104"/>
-    </row>
-    <row r="7" spans="1:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="143"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="159"/>
+      <c r="AF6" s="160"/>
+      <c r="AG6" s="104"/>
+    </row>
+    <row r="7" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="142"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
       <c r="R7" s="85" t="s">
         <v>148</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="118"/>
+      <c r="T7" s="117"/>
       <c r="U7" s="4" t="s">
         <v>30</v>
       </c>
@@ -19455,21 +19432,18 @@
       <c r="W7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="132"/>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="117"/>
-      <c r="AG7" s="118"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="161"/>
-      <c r="AJ7" s="104"/>
-    </row>
-    <row r="8" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X7" s="129"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="117"/>
+      <c r="AE7" s="159"/>
+      <c r="AF7" s="160"/>
+      <c r="AG7" s="104"/>
+    </row>
+    <row r="8" spans="1:33" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -19489,9 +19463,9 @@
         <f>I8*(SUM(J8:M8))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="114"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
       <c r="R8" s="71"/>
       <c r="S8" s="16">
         <f>I8*J8</f>
@@ -19537,23 +19511,17 @@
         <f>+T8+X8+Z8+AB8</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="18">
-        <f>AC8*R8</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="16">
-        <f t="shared" ref="AG8:AG14" si="0">AC8-AD8-AE8</f>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="20">
+      <c r="AD8" s="16">
+        <f>AC8</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="20">
         <v>1</v>
       </c>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="104"/>
-    </row>
-    <row r="9" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="104"/>
+    </row>
+    <row r="9" spans="1:33" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -19573,16 +19541,16 @@
         <f>I9*(SUM(J9:M9))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="114"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
       <c r="R9" s="71"/>
       <c r="S9" s="16">
         <f>I9*J9</f>
         <v>0</v>
       </c>
       <c r="T9" s="16">
-        <f t="shared" ref="T9:T15" si="1">ROUND(SUM(S9:S9)*20%,0)</f>
+        <f t="shared" ref="T9:T15" si="0">ROUND(SUM(S9:S9)*20%,0)</f>
         <v>0</v>
       </c>
       <c r="U9" s="14">
@@ -19598,7 +19566,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="16">
-        <f t="shared" ref="X9:X15" si="2">ROUND(SUM(U9:W9)*20%,0)</f>
+        <f t="shared" ref="X9:X15" si="1">ROUND(SUM(U9:W9)*20%,0)</f>
         <v>0</v>
       </c>
       <c r="Y9" s="14">
@@ -19606,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="16">
-        <f t="shared" ref="Z9:Z15" si="3">ROUND(Y9*20%,0)</f>
+        <f t="shared" ref="Z9:Z15" si="2">ROUND(Y9*20%,0)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="14">
@@ -19614,30 +19582,24 @@
         <v>0</v>
       </c>
       <c r="AB9" s="16">
-        <f t="shared" ref="AB9:AB15" si="4">ROUND(AA9*20%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="17">
-        <f t="shared" ref="AC9:AC14" si="5">+T9+X9+Z9+AB9</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="18">
-        <f>AC9*R9</f>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="20">
+        <f t="shared" ref="AB9:AB15" si="3">ROUND(AA9*20%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="169">
+        <f t="shared" ref="AC9:AC14" si="4">+T9+X9+Z9+AB9</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
+        <f t="shared" ref="AD9:AD15" si="5">AC9</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="20">
         <v>2</v>
       </c>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="104"/>
-    </row>
-    <row r="10" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="104"/>
+    </row>
+    <row r="10" spans="1:33" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -19653,20 +19615,20 @@
       <c r="K10" s="12"/>
       <c r="L10" s="13"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="106">
+      <c r="N10" s="105">
         <f t="shared" ref="N10:N15" si="6">I10*(SUM(J10:M10))*20%</f>
         <v>0</v>
       </c>
-      <c r="O10" s="114"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
       <c r="R10" s="71"/>
       <c r="S10" s="16">
         <f>I10*J10</f>
         <v>0</v>
       </c>
       <c r="T10" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U10" s="16">
@@ -19682,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y10" s="16">
@@ -19690,7 +19652,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA10" s="16">
@@ -19698,30 +19660,24 @@
         <v>0</v>
       </c>
       <c r="AB10" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="169">
         <f t="shared" ref="AC10:AC13" si="7">+T10+X10+Z10+AB10</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="18">
-        <f>AC10*R10</f>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="105">
-        <f t="shared" ref="AG10:AG13" si="8">AC10-AD10-AE10</f>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="20">
+      <c r="AD10" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20">
         <v>3</v>
       </c>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="104"/>
-    </row>
-    <row r="11" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="104"/>
+    </row>
+    <row r="11" spans="1:33" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -19737,20 +19693,20 @@
       <c r="K11" s="12"/>
       <c r="L11" s="13"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="106">
+      <c r="N11" s="105">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O11" s="114"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
       <c r="R11" s="71"/>
       <c r="S11" s="16">
         <f>I11*J11</f>
         <v>0</v>
       </c>
       <c r="T11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U11" s="16">
@@ -19766,7 +19722,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y11" s="16">
@@ -19774,7 +19730,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11" s="16">
@@ -19782,30 +19738,24 @@
         <v>0</v>
       </c>
       <c r="AB11" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="169">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="18">
-        <f>AC11*R11</f>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="20">
+      <c r="AD11" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="20">
         <v>4</v>
       </c>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="104"/>
-    </row>
-    <row r="12" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="104"/>
+    </row>
+    <row r="12" spans="1:33" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -19821,20 +19771,20 @@
       <c r="K12" s="12"/>
       <c r="L12" s="13"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="106">
+      <c r="N12" s="105">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O12" s="114"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
       <c r="R12" s="71"/>
       <c r="S12" s="16">
         <f>I12*J12</f>
         <v>0</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U12" s="16">
@@ -19850,7 +19800,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y12" s="16">
@@ -19858,7 +19808,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12" s="16">
@@ -19866,30 +19816,24 @@
         <v>0</v>
       </c>
       <c r="AB12" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="169">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="18">
-        <f>AC12*R12</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="20">
+      <c r="AD12" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="20">
         <v>5</v>
       </c>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="104"/>
-    </row>
-    <row r="13" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="104"/>
+    </row>
+    <row r="13" spans="1:33" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -19905,20 +19849,20 @@
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="106">
+      <c r="N13" s="105">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O13" s="114"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
       <c r="R13" s="71"/>
       <c r="S13" s="16">
         <f>I13*J13</f>
         <v>0</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U13" s="16">
@@ -19934,7 +19878,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y13" s="16">
@@ -19942,7 +19886,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA13" s="16">
@@ -19950,30 +19894,24 @@
         <v>0</v>
       </c>
       <c r="AB13" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="169">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="18">
-        <f>AC13*R13</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="20">
+      <c r="AD13" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="20">
         <v>6</v>
       </c>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="104"/>
-    </row>
-    <row r="14" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="104"/>
+    </row>
+    <row r="14" spans="1:33" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -19989,20 +19927,20 @@
       <c r="K14" s="12"/>
       <c r="L14" s="13"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="106">
+      <c r="N14" s="105">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O14" s="114"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
       <c r="R14" s="71"/>
       <c r="S14" s="16">
         <f>I14*J14</f>
         <v>0</v>
       </c>
       <c r="T14" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U14" s="16">
@@ -20018,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y14" s="16">
@@ -20026,7 +19964,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA14" s="16">
@@ -20034,30 +19972,24 @@
         <v>0</v>
       </c>
       <c r="AB14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="169">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="107">
+      <c r="AD14" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="18">
-        <f>AC14*R14</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="20">
+      <c r="AE14" s="20">
         <v>7</v>
       </c>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="104"/>
-    </row>
-    <row r="15" spans="1:36" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="104"/>
+    </row>
+    <row r="15" spans="1:33" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>4</v>
       </c>
@@ -20073,20 +20005,20 @@
       <c r="K15" s="12"/>
       <c r="L15" s="13"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="106">
+      <c r="N15" s="105">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O15" s="114"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
       <c r="R15" s="71"/>
       <c r="S15" s="16">
         <f>I15*J15</f>
         <v>0</v>
       </c>
       <c r="T15" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U15" s="16">
@@ -20102,7 +20034,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y15" s="16">
@@ -20110,7 +20042,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA15" s="16">
@@ -20118,30 +20050,24 @@
         <v>0</v>
       </c>
       <c r="AB15" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="107">
-        <f t="shared" ref="AC15" si="9">+T15+X15+Z15+AB15</f>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="18">
-        <f>AC15*R15</f>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="105">
-        <f t="shared" ref="AG15" si="10">AC15-AD15-AE15</f>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="169">
+        <f t="shared" ref="AC15" si="8">+T15+X15+Z15+AB15</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="20">
         <v>8</v>
       </c>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="104"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="104"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -20175,12 +20101,12 @@
       </c>
       <c r="Y16" s="44"/>
       <c r="Z16" s="16">
-        <f t="shared" ref="Z16" si="11">Y16</f>
+        <f t="shared" ref="Z16" si="9">Y16</f>
         <v>0</v>
       </c>
       <c r="AA16" s="44"/>
       <c r="AB16" s="16">
-        <f t="shared" ref="AB16" si="12">AA16</f>
+        <f t="shared" ref="AB16" si="10">AA16</f>
         <v>0</v>
       </c>
       <c r="AC16" s="43">
@@ -20191,23 +20117,11 @@
         <f>SUM(AD8:AD15)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="43">
-        <f>SUM(AE8:AE14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="43">
-        <f>SUM(AF8:AF14)</f>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="43">
-        <f>SUM(AG8:AG15)</f>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="39"/>
-    </row>
-    <row r="17" spans="2:36" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="39"/>
+    </row>
+    <row r="17" spans="2:33" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -20225,7 +20139,7 @@
       <c r="Q17" s="76"/>
       <c r="R17" s="76"/>
     </row>
-    <row r="18" spans="2:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -20243,7 +20157,7 @@
       <c r="Q18" s="76"/>
       <c r="R18" s="76"/>
     </row>
-    <row r="19" spans="2:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -20261,11 +20175,11 @@
       <c r="Q19" s="76"/>
       <c r="R19" s="76"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B20" s="134" t="s">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B20" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="134"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -20281,7 +20195,7 @@
       <c r="Q20" s="47"/>
       <c r="R20" s="47"/>
     </row>
-    <row r="21" spans="2:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="48" t="s">
         <v>79</v>
       </c>
@@ -20300,28 +20214,23 @@
       <c r="P21" s="47"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="47"/>
-      <c r="S21" s="169"/>
-      <c r="T21" s="169"/>
-      <c r="U21" s="169"/>
-      <c r="V21" s="169"/>
-      <c r="W21" s="169"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="168"/>
+      <c r="U21" s="168"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="168"/>
       <c r="X21" s="47"/>
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
       <c r="AA21" s="39"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="49"/>
-      <c r="AD21" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="164"/>
-      <c r="AG21" s="164"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
       <c r="D22" s="39"/>
@@ -20338,11 +20247,11 @@
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
-      <c r="S22" s="169"/>
-      <c r="T22" s="169"/>
-      <c r="U22" s="169"/>
-      <c r="V22" s="169"/>
-      <c r="W22" s="169"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="168"/>
+      <c r="U22" s="168"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="168"/>
       <c r="X22" s="47"/>
       <c r="Y22" s="39"/>
       <c r="Z22" s="39"/>
@@ -20350,14 +20259,11 @@
       <c r="AB22" s="39"/>
       <c r="AC22" s="47"/>
       <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
       <c r="D23" s="39"/>
@@ -20374,7 +20280,7 @@
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="47"/>
-      <c r="S23" s="108"/>
+      <c r="S23" s="106"/>
       <c r="T23" s="59"/>
       <c r="U23" s="59"/>
       <c r="V23" s="39"/>
@@ -20386,14 +20292,11 @@
       <c r="AB23" s="39"/>
       <c r="AC23" s="47"/>
       <c r="AD23" s="54"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="54"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="S24" s="58"/>
@@ -20403,11 +20306,8 @@
       <c r="AB24" s="39"/>
       <c r="AC24" s="56"/>
       <c r="AD24" s="54"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="54"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="S25" s="58"/>
@@ -20415,46 +20315,33 @@
       <c r="U25" s="59"/>
       <c r="AC25" s="39"/>
       <c r="AD25" s="54"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="54"/>
-    </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B26" s="135" t="s">
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B26" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="135"/>
-      <c r="S26" s="133"/>
-      <c r="T26" s="133"/>
-      <c r="U26" s="133"/>
-      <c r="V26" s="133"/>
-      <c r="W26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
       <c r="AC26" s="39"/>
-      <c r="AD26" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE26" s="135"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="135"/>
-    </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD26" s="113"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B27" s="60" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="60"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="133"/>
-      <c r="AD27" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE27" s="135"/>
-      <c r="AF27" s="135"/>
-      <c r="AG27" s="135"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="AD27" s="113"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
       <c r="Z28" s="39"/>
@@ -20462,11 +20349,8 @@
       <c r="AB28" s="39"/>
       <c r="AC28" s="39"/>
       <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
       <c r="V29" s="39"/>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
@@ -20478,12 +20362,9 @@
         <v>83</v>
       </c>
       <c r="AD29" s="61"/>
-      <c r="AE29" s="61"/>
-      <c r="AF29" s="61"/>
-      <c r="AG29" s="61"/>
-      <c r="AH29" s="39"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE29" s="39"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
       <c r="V30" s="39"/>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
@@ -20493,12 +20374,9 @@
       <c r="AB30" s="39"/>
       <c r="AC30" s="61"/>
       <c r="AD30" s="61"/>
-      <c r="AE30" s="61"/>
-      <c r="AF30" s="61"/>
-      <c r="AG30" s="61"/>
-      <c r="AH30" s="39"/>
-    </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE30" s="39"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
       <c r="V31" s="39"/>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
@@ -20508,12 +20386,9 @@
       <c r="AB31" s="39"/>
       <c r="AC31" s="62"/>
       <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="39"/>
-    </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE31" s="39"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
       <c r="V32" s="39"/>
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
@@ -20523,14 +20398,11 @@
       <c r="AB32" s="39"/>
       <c r="AC32" s="61"/>
       <c r="AD32" s="61"/>
-      <c r="AE32" s="61"/>
-      <c r="AF32" s="61"/>
-      <c r="AG32" s="61"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-    </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="V33" s="39"/>
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
@@ -20540,15 +20412,12 @@
       <c r="AB33" s="39"/>
       <c r="AC33" s="61"/>
       <c r="AD33" s="61"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="61"/>
-      <c r="AG33" s="61"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-    </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B34" s="109" t="s">
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B34" s="107" t="s">
         <v>150</v>
       </c>
       <c r="V34" s="39"/>
@@ -20563,11 +20432,8 @@
       <c r="AE34" s="39"/>
       <c r="AF34" s="39"/>
       <c r="AG34" s="39"/>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="39"/>
-    </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="T35" s="63"/>
       <c r="V35" s="39"/>
       <c r="W35" s="39"/>
@@ -20578,14 +20444,11 @@
       <c r="AB35" s="63"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-    </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B36" s="90"/>
       <c r="C36" s="91" t="s">
         <v>151</v>
@@ -20604,14 +20467,11 @@
       <c r="AB36" s="61"/>
       <c r="AC36" s="61"/>
       <c r="AD36" s="61"/>
-      <c r="AE36" s="61"/>
-      <c r="AF36" s="61"/>
-      <c r="AG36" s="61"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-    </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="92" t="s">
         <v>153</v>
       </c>
@@ -20632,14 +20492,11 @@
       <c r="AB37" s="64"/>
       <c r="AC37" s="64"/>
       <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-    </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B38" s="95"/>
       <c r="C38" s="94"/>
       <c r="D38" s="93"/>
@@ -20654,21 +20511,18 @@
       <c r="AB38" s="64"/>
       <c r="AC38" s="64"/>
       <c r="AD38" s="64"/>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="39"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
-    </row>
-    <row r="39" spans="2:36" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+    </row>
+    <row r="39" spans="2:33" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="92" t="s">
         <v>156</v>
       </c>
       <c r="C39" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="166" t="s">
+      <c r="D39" s="165" t="s">
         <v>158</v>
       </c>
       <c r="T39" s="65"/>
@@ -20682,17 +20536,14 @@
       <c r="AB39" s="66"/>
       <c r="AC39" s="66"/>
       <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="39"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-    </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B40" s="95"/>
       <c r="C40" s="94"/>
-      <c r="D40" s="167"/>
+      <c r="D40" s="166"/>
       <c r="T40" s="65"/>
       <c r="U40" s="65"/>
       <c r="V40" s="66"/>
@@ -20704,14 +20555,11 @@
       <c r="AB40" s="66"/>
       <c r="AC40" s="66"/>
       <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="39"/>
-      <c r="AI40" s="39"/>
-      <c r="AJ40" s="39"/>
-    </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="39"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B41" s="96"/>
       <c r="C41" s="89"/>
       <c r="D41" s="89"/>
@@ -20727,11 +20575,8 @@
       <c r="AE41" s="39"/>
       <c r="AF41" s="39"/>
       <c r="AG41" s="39"/>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-    </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B42" s="97" t="s">
         <v>159</v>
       </c>
@@ -20751,16 +20596,13 @@
       <c r="AE42" s="39"/>
       <c r="AF42" s="39"/>
       <c r="AG42" s="39"/>
-      <c r="AH42" s="39"/>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="39"/>
-    </row>
-    <row r="43" spans="2:36" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:33" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="100"/>
-      <c r="C43" s="168" t="s">
+      <c r="C43" s="167" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="168"/>
+      <c r="D43" s="167"/>
       <c r="V43" s="39"/>
       <c r="W43" s="39"/>
       <c r="X43" s="39"/>
@@ -20773,16 +20615,13 @@
       <c r="AE43" s="39"/>
       <c r="AF43" s="39"/>
       <c r="AG43" s="39"/>
-      <c r="AH43" s="39"/>
-      <c r="AI43" s="39"/>
-      <c r="AJ43" s="39"/>
-    </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B44" s="89"/>
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="111" t="s">
+      <c r="D44" s="109" t="s">
         <v>163</v>
       </c>
       <c r="V44" s="39"/>
@@ -20797,11 +20636,8 @@
       <c r="AE44" s="39"/>
       <c r="AF44" s="39"/>
       <c r="AG44" s="39"/>
-      <c r="AH44" s="39"/>
-      <c r="AI44" s="39"/>
-      <c r="AJ44" s="39"/>
-    </row>
-    <row r="45" spans="2:36" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B45" s="101"/>
       <c r="C45" s="102" t="s">
         <v>164</v>
@@ -20821,11 +20657,8 @@
       <c r="AE45" s="39"/>
       <c r="AF45" s="39"/>
       <c r="AG45" s="39"/>
-      <c r="AH45" s="39"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="39"/>
-    </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="V46" s="39"/>
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
@@ -20838,11 +20671,8 @@
       <c r="AE46" s="39"/>
       <c r="AF46" s="39"/>
       <c r="AG46" s="39"/>
-      <c r="AH46" s="39"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
-    </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="V47" s="39"/>
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
@@ -20855,11 +20685,8 @@
       <c r="AE47" s="39"/>
       <c r="AF47" s="39"/>
       <c r="AG47" s="39"/>
-      <c r="AH47" s="39"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-    </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="V48" s="39"/>
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
@@ -20872,11 +20699,8 @@
       <c r="AE48" s="39"/>
       <c r="AF48" s="39"/>
       <c r="AG48" s="39"/>
-      <c r="AH48" s="39"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
-    </row>
-    <row r="49" spans="22:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="22:33" x14ac:dyDescent="0.2">
       <c r="V49" s="39"/>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
@@ -20889,11 +20713,8 @@
       <c r="AE49" s="39"/>
       <c r="AF49" s="39"/>
       <c r="AG49" s="39"/>
-      <c r="AH49" s="39"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-    </row>
-    <row r="50" spans="22:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="22:33" x14ac:dyDescent="0.2">
       <c r="V50" s="39"/>
       <c r="W50" s="39"/>
       <c r="X50" s="39"/>
@@ -20906,11 +20727,8 @@
       <c r="AE50" s="39"/>
       <c r="AF50" s="39"/>
       <c r="AG50" s="39"/>
-      <c r="AH50" s="39"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
-    </row>
-    <row r="51" spans="22:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="22:33" x14ac:dyDescent="0.2">
       <c r="V51" s="39"/>
       <c r="W51" s="39"/>
       <c r="X51" s="39"/>
@@ -20923,11 +20741,8 @@
       <c r="AE51" s="39"/>
       <c r="AF51" s="39"/>
       <c r="AG51" s="39"/>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-    </row>
-    <row r="52" spans="22:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="22:33" x14ac:dyDescent="0.2">
       <c r="V52" s="39"/>
       <c r="W52" s="39"/>
       <c r="X52" s="39"/>
@@ -20938,11 +20753,8 @@
       <c r="AC52" s="39"/>
       <c r="AD52" s="39"/>
       <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="39"/>
-      <c r="AH52" s="39"/>
-    </row>
-    <row r="53" spans="22:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="22:33" x14ac:dyDescent="0.2">
       <c r="V53" s="39"/>
       <c r="W53" s="39"/>
       <c r="X53" s="39"/>
@@ -20953,11 +20765,8 @@
       <c r="AC53" s="39"/>
       <c r="AD53" s="39"/>
       <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39"/>
-      <c r="AH53" s="39"/>
-    </row>
-    <row r="54" spans="22:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="22:33" x14ac:dyDescent="0.2">
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
       <c r="X54" s="39"/>
@@ -20968,12 +20777,9 @@
       <c r="AC54" s="39"/>
       <c r="AD54" s="39"/>
       <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="40">
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="A5:A7"/>
@@ -20988,19 +20794,17 @@
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AD5:AD7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="A3:AF3"/>
     <mergeCell ref="S5:AC5"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AE5:AF7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:W6"/>
     <mergeCell ref="Y6:Y7"/>
@@ -21009,17 +20813,13 @@
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="X6:X7"/>
-    <mergeCell ref="AE5:AE7"/>
     <mergeCell ref="S27:W27"/>
-    <mergeCell ref="AD27:AG27"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="S21:W22"/>
-    <mergeCell ref="AD21:AG21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="S26:W26"/>
-    <mergeCell ref="AD26:AG26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21066,119 +20866,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
+      <c r="A1" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="140"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="140"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
       <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="141"/>
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="141"/>
       <c r="AJ3" s="2"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -21188,180 +20988,180 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="147" t="s">
+      <c r="F5" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="148" t="s">
+      <c r="H5" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="150" t="s">
+      <c r="I5" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="136" t="s">
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="154" t="s">
+      <c r="O5" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="138" t="s">
+      <c r="P5" s="154"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="162"/>
-      <c r="Z5" s="162"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="123" t="s">
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="122" t="s">
         <v>212</v>
       </c>
-      <c r="AE5" s="123" t="s">
+      <c r="AE5" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="AF5" s="126" t="s">
+      <c r="AF5" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" s="116" t="s">
+      <c r="AG5" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="AH5" s="116" t="s">
+      <c r="AH5" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="AI5" s="116" t="s">
+      <c r="AI5" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="AJ5" s="118" t="s">
+      <c r="AJ5" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="AK5" s="119" t="s">
+      <c r="AK5" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="AL5" s="119"/>
+      <c r="AL5" s="118"/>
     </row>
     <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="143"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="136" t="s">
+      <c r="A6" s="142"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="138" t="s">
+      <c r="N6" s="136"/>
+      <c r="O6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="P6" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="Q6" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="139"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="118" t="s">
+      <c r="R6" s="138"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="130" t="s">
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="131" t="s">
+      <c r="Y6" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="131" t="s">
+      <c r="Z6" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="132" t="s">
+      <c r="AA6" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="132" t="s">
+      <c r="AB6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="120" t="s">
+      <c r="AC6" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="117"/>
-      <c r="AH6" s="117"/>
-      <c r="AI6" s="117"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="119"/>
-      <c r="AL6" s="119"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="143"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="157"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="156"/>
       <c r="S7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="118"/>
+      <c r="T7" s="117"/>
       <c r="U7" s="4" t="s">
         <v>30</v>
       </c>
@@ -21371,21 +21171,21 @@
       <c r="W7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="132"/>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="117"/>
-      <c r="AJ7" s="118"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="119"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="124"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="128"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="117"/>
+      <c r="AK7" s="118"/>
+      <c r="AL7" s="118"/>
     </row>
     <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -21407,9 +21207,9 @@
         <f t="shared" ref="N8:N155" si="0">ROUND(I8*(SUM(J8:M8)),0)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="114"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
       <c r="R8" s="71"/>
       <c r="S8" s="16">
         <f>I8*J8</f>
@@ -21502,9 +21302,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="114"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="113"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="111"/>
       <c r="R9" s="71"/>
       <c r="S9" s="16">
         <f>I9*J9</f>
@@ -21597,9 +21397,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="114"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
       <c r="R10" s="71"/>
       <c r="S10" s="16">
         <f>I10*J10</f>
@@ -21692,9 +21492,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="114"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
       <c r="R11" s="71"/>
       <c r="S11" s="16">
         <f>I11*J11</f>
@@ -21787,9 +21587,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="114"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
       <c r="R12" s="71"/>
       <c r="S12" s="16">
         <f>I12*J12</f>
@@ -21882,9 +21682,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="114"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
       <c r="R13" s="71"/>
       <c r="S13" s="16">
         <f>I13*J13</f>
@@ -21977,9 +21777,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="114"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
       <c r="R14" s="71"/>
       <c r="S14" s="16">
         <f>I14*J14</f>
@@ -22072,9 +21872,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="114"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
       <c r="R15" s="71"/>
       <c r="S15" s="16">
         <f>I15*J15</f>
@@ -22167,9 +21967,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="114"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
       <c r="R16" s="71"/>
       <c r="S16" s="16">
         <f>I16*J16</f>
@@ -22262,9 +22062,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="114"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="71"/>
       <c r="S17" s="16">
         <f>I17*J17</f>
@@ -22357,9 +22157,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O18" s="114"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
       <c r="R18" s="71"/>
       <c r="S18" s="16">
         <f>I18*J18</f>
@@ -22452,9 +22252,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O19" s="114"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
       <c r="R19" s="71"/>
       <c r="S19" s="16">
         <f>I19*J19</f>
@@ -22547,9 +22347,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="114"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
       <c r="R20" s="71"/>
       <c r="S20" s="16">
         <f>I20*J20</f>
@@ -22642,9 +22442,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="114"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
       <c r="R21" s="71"/>
       <c r="S21" s="16">
         <f>I21*J21</f>
@@ -22737,9 +22537,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22" s="114"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
       <c r="R22" s="71"/>
       <c r="S22" s="16">
         <f>I22*J22</f>
@@ -22832,9 +22632,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="114"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
       <c r="R23" s="71"/>
       <c r="S23" s="16">
         <f>I23*J23</f>
@@ -22927,9 +22727,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="114"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
       <c r="R24" s="71"/>
       <c r="S24" s="16">
         <f>I24*J24</f>
@@ -23022,9 +22822,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
       <c r="R25" s="71"/>
       <c r="S25" s="16">
         <f>I25*J25</f>
@@ -23117,9 +22917,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="114"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
       <c r="R26" s="71"/>
       <c r="S26" s="16">
         <f>I26*J26</f>
@@ -23212,9 +23012,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="114"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
       <c r="R27" s="71"/>
       <c r="S27" s="16">
         <f>I27*J27</f>
@@ -23307,9 +23107,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="114"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
       <c r="R28" s="71"/>
       <c r="S28" s="16">
         <f>I28*J28</f>
@@ -23402,9 +23202,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="114"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
       <c r="R29" s="71"/>
       <c r="S29" s="16">
         <f>I29*J29</f>
@@ -23497,9 +23297,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O30" s="114"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
       <c r="R30" s="71"/>
       <c r="S30" s="16">
         <f>I30*J30</f>
@@ -23592,9 +23392,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O31" s="114"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
       <c r="R31" s="71"/>
       <c r="S31" s="16">
         <f>I31*J31</f>
@@ -23687,9 +23487,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O32" s="114"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
       <c r="R32" s="71"/>
       <c r="S32" s="16">
         <f>I32*J32</f>
@@ -23782,9 +23582,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="114"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
       <c r="R33" s="71"/>
       <c r="S33" s="16">
         <f>I33*J33</f>
@@ -23877,9 +23677,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O34" s="114"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
       <c r="R34" s="71"/>
       <c r="S34" s="16">
         <f>I34*J34</f>
@@ -23972,9 +23772,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O35" s="114"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
       <c r="R35" s="71"/>
       <c r="S35" s="16">
         <f>I35*J35</f>
@@ -24067,9 +23867,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O36" s="114"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="110"/>
       <c r="R36" s="71"/>
       <c r="S36" s="16">
         <f>I36*J36</f>
@@ -24162,9 +23962,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O37" s="114"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
       <c r="R37" s="71"/>
       <c r="S37" s="16">
         <f>I37*J37</f>
@@ -24257,9 +24057,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O38" s="114"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="112"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
       <c r="R38" s="71"/>
       <c r="S38" s="16">
         <f>I38*J38</f>
@@ -24352,9 +24152,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O39" s="114"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
       <c r="R39" s="71"/>
       <c r="S39" s="16">
         <f>I39*J39</f>
@@ -24447,9 +24247,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O40" s="114"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="110"/>
       <c r="R40" s="71"/>
       <c r="S40" s="16">
         <f>I40*J40</f>
@@ -24542,9 +24342,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O41" s="114"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
       <c r="R41" s="71"/>
       <c r="S41" s="16">
         <f>I41*J41</f>
@@ -24637,9 +24437,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O42" s="114"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="110"/>
+      <c r="Q42" s="110"/>
       <c r="R42" s="71"/>
       <c r="S42" s="16">
         <f>I42*J42</f>
@@ -24732,9 +24532,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O43" s="114"/>
-      <c r="P43" s="112"/>
-      <c r="Q43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="110"/>
+      <c r="Q43" s="110"/>
       <c r="R43" s="71"/>
       <c r="S43" s="16">
         <f>I43*J43</f>
@@ -24827,9 +24627,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O44" s="114"/>
-      <c r="P44" s="112"/>
-      <c r="Q44" s="112"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="110"/>
+      <c r="Q44" s="110"/>
       <c r="R44" s="71"/>
       <c r="S44" s="16">
         <f>I44*J44</f>
@@ -24922,9 +24722,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O45" s="114"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
       <c r="R45" s="71"/>
       <c r="S45" s="16">
         <f>I45*J45</f>
@@ -25017,9 +24817,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O46" s="114"/>
-      <c r="P46" s="112"/>
-      <c r="Q46" s="112"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
       <c r="R46" s="71"/>
       <c r="S46" s="16">
         <f>I46*J46</f>
@@ -25112,9 +24912,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O47" s="114"/>
-      <c r="P47" s="112"/>
-      <c r="Q47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
       <c r="R47" s="71"/>
       <c r="S47" s="16">
         <f>I47*J47</f>
@@ -25207,9 +25007,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O48" s="114"/>
-      <c r="P48" s="112"/>
-      <c r="Q48" s="112"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="110"/>
       <c r="R48" s="71"/>
       <c r="S48" s="16">
         <f>I48*J48</f>
@@ -25302,9 +25102,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O49" s="114"/>
-      <c r="P49" s="112"/>
-      <c r="Q49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
       <c r="R49" s="71"/>
       <c r="S49" s="16">
         <f>I49*J49</f>
@@ -25397,9 +25197,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O50" s="114"/>
-      <c r="P50" s="112"/>
-      <c r="Q50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="110"/>
       <c r="R50" s="71"/>
       <c r="S50" s="16">
         <f>I50*J50</f>
@@ -25492,9 +25292,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O51" s="114"/>
-      <c r="P51" s="112"/>
-      <c r="Q51" s="112"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="110"/>
+      <c r="Q51" s="110"/>
       <c r="R51" s="71"/>
       <c r="S51" s="16">
         <f>I51*J51</f>
@@ -25587,9 +25387,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O52" s="114"/>
-      <c r="P52" s="112"/>
-      <c r="Q52" s="112"/>
+      <c r="O52" s="112"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="110"/>
       <c r="R52" s="71"/>
       <c r="S52" s="16">
         <f>I52*J52</f>
@@ -25682,9 +25482,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O53" s="114"/>
-      <c r="P53" s="112"/>
-      <c r="Q53" s="112"/>
+      <c r="O53" s="112"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="110"/>
       <c r="R53" s="71"/>
       <c r="S53" s="16">
         <f>I53*J53</f>
@@ -25777,9 +25577,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O54" s="114"/>
-      <c r="P54" s="112"/>
-      <c r="Q54" s="112"/>
+      <c r="O54" s="112"/>
+      <c r="P54" s="110"/>
+      <c r="Q54" s="110"/>
       <c r="R54" s="71"/>
       <c r="S54" s="16">
         <f>I54*J54</f>
@@ -25872,9 +25672,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O55" s="114"/>
-      <c r="P55" s="112"/>
-      <c r="Q55" s="112"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
       <c r="R55" s="71"/>
       <c r="S55" s="16">
         <f>I55*J55</f>
@@ -25967,9 +25767,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O56" s="114"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="110"/>
       <c r="R56" s="71"/>
       <c r="S56" s="16">
         <f>I56*J56</f>
@@ -26062,9 +25862,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O57" s="114"/>
-      <c r="P57" s="112"/>
-      <c r="Q57" s="112"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="110"/>
       <c r="R57" s="71"/>
       <c r="S57" s="16">
         <f>I57*J57</f>
@@ -26157,9 +25957,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O58" s="114"/>
-      <c r="P58" s="112"/>
-      <c r="Q58" s="112"/>
+      <c r="O58" s="112"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="110"/>
       <c r="R58" s="71"/>
       <c r="S58" s="16">
         <f>I58*J58</f>
@@ -26252,9 +26052,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O59" s="114"/>
-      <c r="P59" s="112"/>
-      <c r="Q59" s="112"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="110"/>
+      <c r="Q59" s="110"/>
       <c r="R59" s="71"/>
       <c r="S59" s="16">
         <f>I59*J59</f>
@@ -26347,9 +26147,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O60" s="114"/>
-      <c r="P60" s="112"/>
-      <c r="Q60" s="112"/>
+      <c r="O60" s="112"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="110"/>
       <c r="R60" s="71"/>
       <c r="S60" s="16">
         <f>I60*J60</f>
@@ -26442,9 +26242,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O61" s="114"/>
-      <c r="P61" s="112"/>
-      <c r="Q61" s="112"/>
+      <c r="O61" s="112"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
       <c r="R61" s="71"/>
       <c r="S61" s="16">
         <f>I61*J61</f>
@@ -26537,9 +26337,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O62" s="114"/>
-      <c r="P62" s="112"/>
-      <c r="Q62" s="112"/>
+      <c r="O62" s="112"/>
+      <c r="P62" s="110"/>
+      <c r="Q62" s="110"/>
       <c r="R62" s="71"/>
       <c r="S62" s="16">
         <f>I62*J62</f>
@@ -26632,9 +26432,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O63" s="114"/>
-      <c r="P63" s="112"/>
-      <c r="Q63" s="112"/>
+      <c r="O63" s="112"/>
+      <c r="P63" s="110"/>
+      <c r="Q63" s="110"/>
       <c r="R63" s="71"/>
       <c r="S63" s="16">
         <f>I63*J63</f>
@@ -26727,9 +26527,9 @@
         <f t="shared" ref="N64:N95" si="11">ROUND(I64*(SUM(J64:M64)),0)</f>
         <v>0</v>
       </c>
-      <c r="O64" s="114"/>
-      <c r="P64" s="112"/>
-      <c r="Q64" s="112"/>
+      <c r="O64" s="112"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="110"/>
       <c r="R64" s="71"/>
       <c r="S64" s="16">
         <f>I64*J64</f>
@@ -26822,9 +26622,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O65" s="114"/>
-      <c r="P65" s="112"/>
-      <c r="Q65" s="112"/>
+      <c r="O65" s="112"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
       <c r="R65" s="71"/>
       <c r="S65" s="16">
         <f>I65*J65</f>
@@ -26917,9 +26717,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O66" s="114"/>
-      <c r="P66" s="112"/>
-      <c r="Q66" s="112"/>
+      <c r="O66" s="112"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
       <c r="R66" s="71"/>
       <c r="S66" s="16">
         <f>I66*J66</f>
@@ -27012,9 +26812,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O67" s="114"/>
-      <c r="P67" s="112"/>
-      <c r="Q67" s="112"/>
+      <c r="O67" s="112"/>
+      <c r="P67" s="110"/>
+      <c r="Q67" s="110"/>
       <c r="R67" s="71"/>
       <c r="S67" s="16">
         <f>I67*J67</f>
@@ -27107,9 +26907,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O68" s="114"/>
-      <c r="P68" s="112"/>
-      <c r="Q68" s="112"/>
+      <c r="O68" s="112"/>
+      <c r="P68" s="110"/>
+      <c r="Q68" s="110"/>
       <c r="R68" s="71"/>
       <c r="S68" s="16">
         <f>I68*J68</f>
@@ -27202,9 +27002,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O69" s="114"/>
-      <c r="P69" s="112"/>
-      <c r="Q69" s="112"/>
+      <c r="O69" s="112"/>
+      <c r="P69" s="110"/>
+      <c r="Q69" s="110"/>
       <c r="R69" s="71"/>
       <c r="S69" s="16">
         <f>I69*J69</f>
@@ -27297,9 +27097,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O70" s="114"/>
-      <c r="P70" s="112"/>
-      <c r="Q70" s="112"/>
+      <c r="O70" s="112"/>
+      <c r="P70" s="110"/>
+      <c r="Q70" s="110"/>
       <c r="R70" s="71"/>
       <c r="S70" s="16">
         <f>I70*J70</f>
@@ -27392,9 +27192,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O71" s="114"/>
-      <c r="P71" s="112"/>
-      <c r="Q71" s="112"/>
+      <c r="O71" s="112"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="110"/>
       <c r="R71" s="71"/>
       <c r="S71" s="16">
         <f>I71*J71</f>
@@ -27487,9 +27287,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O72" s="114"/>
-      <c r="P72" s="112"/>
-      <c r="Q72" s="112"/>
+      <c r="O72" s="112"/>
+      <c r="P72" s="110"/>
+      <c r="Q72" s="110"/>
       <c r="R72" s="71"/>
       <c r="S72" s="16">
         <f>I72*J72</f>
@@ -27582,9 +27382,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O73" s="114"/>
-      <c r="P73" s="112"/>
-      <c r="Q73" s="112"/>
+      <c r="O73" s="112"/>
+      <c r="P73" s="110"/>
+      <c r="Q73" s="110"/>
       <c r="R73" s="71"/>
       <c r="S73" s="16">
         <f>I73*J73</f>
@@ -27677,9 +27477,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O74" s="114"/>
-      <c r="P74" s="112"/>
-      <c r="Q74" s="112"/>
+      <c r="O74" s="112"/>
+      <c r="P74" s="110"/>
+      <c r="Q74" s="110"/>
       <c r="R74" s="71"/>
       <c r="S74" s="16">
         <f>I74*J74</f>
@@ -27772,9 +27572,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O75" s="114"/>
-      <c r="P75" s="112"/>
-      <c r="Q75" s="112"/>
+      <c r="O75" s="112"/>
+      <c r="P75" s="110"/>
+      <c r="Q75" s="110"/>
       <c r="R75" s="71"/>
       <c r="S75" s="16">
         <f>I75*J75</f>
@@ -27867,9 +27667,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O76" s="114"/>
-      <c r="P76" s="112"/>
-      <c r="Q76" s="112"/>
+      <c r="O76" s="112"/>
+      <c r="P76" s="110"/>
+      <c r="Q76" s="110"/>
       <c r="R76" s="71"/>
       <c r="S76" s="16">
         <f>I76*J76</f>
@@ -27962,9 +27762,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O77" s="114"/>
-      <c r="P77" s="112"/>
-      <c r="Q77" s="112"/>
+      <c r="O77" s="112"/>
+      <c r="P77" s="110"/>
+      <c r="Q77" s="110"/>
       <c r="R77" s="71"/>
       <c r="S77" s="16">
         <f>I77*J77</f>
@@ -28057,9 +27857,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O78" s="114"/>
-      <c r="P78" s="112"/>
-      <c r="Q78" s="112"/>
+      <c r="O78" s="112"/>
+      <c r="P78" s="110"/>
+      <c r="Q78" s="110"/>
       <c r="R78" s="71"/>
       <c r="S78" s="16">
         <f>I78*J78</f>
@@ -28152,9 +27952,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O79" s="114"/>
-      <c r="P79" s="112"/>
-      <c r="Q79" s="112"/>
+      <c r="O79" s="112"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="110"/>
       <c r="R79" s="71"/>
       <c r="S79" s="16">
         <f>I79*J79</f>
@@ -28247,9 +28047,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O80" s="114"/>
-      <c r="P80" s="112"/>
-      <c r="Q80" s="112"/>
+      <c r="O80" s="112"/>
+      <c r="P80" s="110"/>
+      <c r="Q80" s="110"/>
       <c r="R80" s="71"/>
       <c r="S80" s="16">
         <f>I80*J80</f>
@@ -28342,9 +28142,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O81" s="114"/>
-      <c r="P81" s="112"/>
-      <c r="Q81" s="112"/>
+      <c r="O81" s="112"/>
+      <c r="P81" s="110"/>
+      <c r="Q81" s="110"/>
       <c r="R81" s="71"/>
       <c r="S81" s="16">
         <f>I81*J81</f>
@@ -28437,9 +28237,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O82" s="114"/>
-      <c r="P82" s="112"/>
-      <c r="Q82" s="112"/>
+      <c r="O82" s="112"/>
+      <c r="P82" s="110"/>
+      <c r="Q82" s="110"/>
       <c r="R82" s="71"/>
       <c r="S82" s="16">
         <f>I82*J82</f>
@@ -28532,9 +28332,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O83" s="114"/>
-      <c r="P83" s="112"/>
-      <c r="Q83" s="112"/>
+      <c r="O83" s="112"/>
+      <c r="P83" s="110"/>
+      <c r="Q83" s="110"/>
       <c r="R83" s="71"/>
       <c r="S83" s="16">
         <f>I83*J83</f>
@@ -28627,9 +28427,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O84" s="114"/>
-      <c r="P84" s="112"/>
-      <c r="Q84" s="112"/>
+      <c r="O84" s="112"/>
+      <c r="P84" s="110"/>
+      <c r="Q84" s="110"/>
       <c r="R84" s="71"/>
       <c r="S84" s="16">
         <f>I84*J84</f>
@@ -28722,9 +28522,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O85" s="114"/>
-      <c r="P85" s="112"/>
-      <c r="Q85" s="112"/>
+      <c r="O85" s="112"/>
+      <c r="P85" s="110"/>
+      <c r="Q85" s="110"/>
       <c r="R85" s="71"/>
       <c r="S85" s="16">
         <f>I85*J85</f>
@@ -28817,9 +28617,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O86" s="114"/>
-      <c r="P86" s="112"/>
-      <c r="Q86" s="112"/>
+      <c r="O86" s="112"/>
+      <c r="P86" s="110"/>
+      <c r="Q86" s="110"/>
       <c r="R86" s="71"/>
       <c r="S86" s="16">
         <f>I86*J86</f>
@@ -28912,9 +28712,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O87" s="114"/>
-      <c r="P87" s="112"/>
-      <c r="Q87" s="112"/>
+      <c r="O87" s="112"/>
+      <c r="P87" s="110"/>
+      <c r="Q87" s="110"/>
       <c r="R87" s="71"/>
       <c r="S87" s="16">
         <f>I87*J87</f>
@@ -29007,9 +28807,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O88" s="114"/>
-      <c r="P88" s="112"/>
-      <c r="Q88" s="112"/>
+      <c r="O88" s="112"/>
+      <c r="P88" s="110"/>
+      <c r="Q88" s="110"/>
       <c r="R88" s="71"/>
       <c r="S88" s="16">
         <f>I88*J88</f>
@@ -29102,9 +28902,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O89" s="114"/>
-      <c r="P89" s="112"/>
-      <c r="Q89" s="112"/>
+      <c r="O89" s="112"/>
+      <c r="P89" s="110"/>
+      <c r="Q89" s="110"/>
       <c r="R89" s="71"/>
       <c r="S89" s="16">
         <f>I89*J89</f>
@@ -29197,9 +28997,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O90" s="114"/>
-      <c r="P90" s="112"/>
-      <c r="Q90" s="112"/>
+      <c r="O90" s="112"/>
+      <c r="P90" s="110"/>
+      <c r="Q90" s="110"/>
       <c r="R90" s="71"/>
       <c r="S90" s="16">
         <f>I90*J90</f>
@@ -29292,9 +29092,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O91" s="114"/>
-      <c r="P91" s="112"/>
-      <c r="Q91" s="112"/>
+      <c r="O91" s="112"/>
+      <c r="P91" s="110"/>
+      <c r="Q91" s="110"/>
       <c r="R91" s="71"/>
       <c r="S91" s="16">
         <f>I91*J91</f>
@@ -29387,9 +29187,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O92" s="114"/>
-      <c r="P92" s="112"/>
-      <c r="Q92" s="112"/>
+      <c r="O92" s="112"/>
+      <c r="P92" s="110"/>
+      <c r="Q92" s="110"/>
       <c r="R92" s="71"/>
       <c r="S92" s="16">
         <f>I92*J92</f>
@@ -29482,9 +29282,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O93" s="114"/>
-      <c r="P93" s="112"/>
-      <c r="Q93" s="112"/>
+      <c r="O93" s="112"/>
+      <c r="P93" s="110"/>
+      <c r="Q93" s="110"/>
       <c r="R93" s="71"/>
       <c r="S93" s="16">
         <f>I93*J93</f>
@@ -29577,9 +29377,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O94" s="114"/>
-      <c r="P94" s="112"/>
-      <c r="Q94" s="112"/>
+      <c r="O94" s="112"/>
+      <c r="P94" s="110"/>
+      <c r="Q94" s="110"/>
       <c r="R94" s="71"/>
       <c r="S94" s="16">
         <f>I94*J94</f>
@@ -29672,9 +29472,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O95" s="114"/>
-      <c r="P95" s="112"/>
-      <c r="Q95" s="112"/>
+      <c r="O95" s="112"/>
+      <c r="P95" s="110"/>
+      <c r="Q95" s="110"/>
       <c r="R95" s="71"/>
       <c r="S95" s="16">
         <f>I95*J95</f>
@@ -29767,9 +29567,9 @@
         <f t="shared" ref="N96:N108" si="18">ROUND(I96*(SUM(J96:M96)),0)</f>
         <v>0</v>
       </c>
-      <c r="O96" s="114"/>
-      <c r="P96" s="112"/>
-      <c r="Q96" s="112"/>
+      <c r="O96" s="112"/>
+      <c r="P96" s="110"/>
+      <c r="Q96" s="110"/>
       <c r="R96" s="71"/>
       <c r="S96" s="16">
         <f>I96*J96</f>
@@ -29862,9 +29662,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O97" s="114"/>
-      <c r="P97" s="112"/>
-      <c r="Q97" s="112"/>
+      <c r="O97" s="112"/>
+      <c r="P97" s="110"/>
+      <c r="Q97" s="110"/>
       <c r="R97" s="71"/>
       <c r="S97" s="16">
         <f>I97*J97</f>
@@ -29957,9 +29757,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O98" s="114"/>
-      <c r="P98" s="112"/>
-      <c r="Q98" s="112"/>
+      <c r="O98" s="112"/>
+      <c r="P98" s="110"/>
+      <c r="Q98" s="110"/>
       <c r="R98" s="71"/>
       <c r="S98" s="16">
         <f>I98*J98</f>
@@ -30052,9 +29852,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O99" s="114"/>
-      <c r="P99" s="112"/>
-      <c r="Q99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="110"/>
+      <c r="Q99" s="110"/>
       <c r="R99" s="71"/>
       <c r="S99" s="16">
         <f>I99*J99</f>
@@ -30147,9 +29947,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O100" s="114"/>
-      <c r="P100" s="112"/>
-      <c r="Q100" s="112"/>
+      <c r="O100" s="112"/>
+      <c r="P100" s="110"/>
+      <c r="Q100" s="110"/>
       <c r="R100" s="71"/>
       <c r="S100" s="16">
         <f>I100*J100</f>
@@ -30242,9 +30042,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O101" s="114"/>
-      <c r="P101" s="112"/>
-      <c r="Q101" s="112"/>
+      <c r="O101" s="112"/>
+      <c r="P101" s="110"/>
+      <c r="Q101" s="110"/>
       <c r="R101" s="71"/>
       <c r="S101" s="16">
         <f>I101*J101</f>
@@ -30337,9 +30137,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O102" s="114"/>
-      <c r="P102" s="112"/>
-      <c r="Q102" s="112"/>
+      <c r="O102" s="112"/>
+      <c r="P102" s="110"/>
+      <c r="Q102" s="110"/>
       <c r="R102" s="71"/>
       <c r="S102" s="16">
         <f>I102*J102</f>
@@ -30432,9 +30232,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O103" s="114"/>
-      <c r="P103" s="112"/>
-      <c r="Q103" s="112"/>
+      <c r="O103" s="112"/>
+      <c r="P103" s="110"/>
+      <c r="Q103" s="110"/>
       <c r="R103" s="71"/>
       <c r="S103" s="16">
         <f>I103*J103</f>
@@ -30527,9 +30327,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O104" s="114"/>
-      <c r="P104" s="112"/>
-      <c r="Q104" s="112"/>
+      <c r="O104" s="112"/>
+      <c r="P104" s="110"/>
+      <c r="Q104" s="110"/>
       <c r="R104" s="71"/>
       <c r="S104" s="16">
         <f>I104*J104</f>
@@ -30622,9 +30422,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O105" s="114"/>
-      <c r="P105" s="112"/>
-      <c r="Q105" s="112"/>
+      <c r="O105" s="112"/>
+      <c r="P105" s="110"/>
+      <c r="Q105" s="110"/>
       <c r="R105" s="71"/>
       <c r="S105" s="16">
         <f>I105*J105</f>
@@ -30717,9 +30517,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O106" s="114"/>
-      <c r="P106" s="112"/>
-      <c r="Q106" s="112"/>
+      <c r="O106" s="112"/>
+      <c r="P106" s="110"/>
+      <c r="Q106" s="110"/>
       <c r="R106" s="71"/>
       <c r="S106" s="16">
         <f>I106*J106</f>
@@ -30812,9 +30612,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O107" s="114"/>
-      <c r="P107" s="112"/>
-      <c r="Q107" s="112"/>
+      <c r="O107" s="112"/>
+      <c r="P107" s="110"/>
+      <c r="Q107" s="110"/>
       <c r="R107" s="71"/>
       <c r="S107" s="16">
         <f>I107*J107</f>
@@ -30907,9 +30707,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O108" s="114"/>
-      <c r="P108" s="112"/>
-      <c r="Q108" s="112"/>
+      <c r="O108" s="112"/>
+      <c r="P108" s="110"/>
+      <c r="Q108" s="110"/>
       <c r="R108" s="71"/>
       <c r="S108" s="16">
         <f>I108*J108</f>
@@ -31002,9 +30802,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O109" s="114"/>
-      <c r="P109" s="112"/>
-      <c r="Q109" s="112"/>
+      <c r="O109" s="112"/>
+      <c r="P109" s="110"/>
+      <c r="Q109" s="110"/>
       <c r="R109" s="71"/>
       <c r="S109" s="16">
         <f>I109*J109</f>
@@ -31097,9 +30897,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O110" s="114"/>
-      <c r="P110" s="112"/>
-      <c r="Q110" s="112"/>
+      <c r="O110" s="112"/>
+      <c r="P110" s="110"/>
+      <c r="Q110" s="110"/>
       <c r="R110" s="71"/>
       <c r="S110" s="16">
         <f>I110*J110</f>
@@ -31192,9 +30992,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O111" s="114"/>
-      <c r="P111" s="112"/>
-      <c r="Q111" s="112"/>
+      <c r="O111" s="112"/>
+      <c r="P111" s="110"/>
+      <c r="Q111" s="110"/>
       <c r="R111" s="71"/>
       <c r="S111" s="16">
         <f>I111*J111</f>
@@ -31287,9 +31087,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O112" s="114"/>
-      <c r="P112" s="112"/>
-      <c r="Q112" s="112"/>
+      <c r="O112" s="112"/>
+      <c r="P112" s="110"/>
+      <c r="Q112" s="110"/>
       <c r="R112" s="71"/>
       <c r="S112" s="16">
         <f>I112*J112</f>
@@ -31382,9 +31182,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O113" s="114"/>
-      <c r="P113" s="112"/>
-      <c r="Q113" s="112"/>
+      <c r="O113" s="112"/>
+      <c r="P113" s="110"/>
+      <c r="Q113" s="110"/>
       <c r="R113" s="71"/>
       <c r="S113" s="16">
         <f>I113*J113</f>
@@ -31477,9 +31277,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O114" s="114"/>
-      <c r="P114" s="112"/>
-      <c r="Q114" s="112"/>
+      <c r="O114" s="112"/>
+      <c r="P114" s="110"/>
+      <c r="Q114" s="110"/>
       <c r="R114" s="71"/>
       <c r="S114" s="16">
         <f>I114*J114</f>
@@ -31572,9 +31372,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O115" s="114"/>
-      <c r="P115" s="112"/>
-      <c r="Q115" s="112"/>
+      <c r="O115" s="112"/>
+      <c r="P115" s="110"/>
+      <c r="Q115" s="110"/>
       <c r="R115" s="71"/>
       <c r="S115" s="16">
         <f>I115*J115</f>
@@ -31667,9 +31467,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O116" s="114"/>
-      <c r="P116" s="112"/>
-      <c r="Q116" s="112"/>
+      <c r="O116" s="112"/>
+      <c r="P116" s="110"/>
+      <c r="Q116" s="110"/>
       <c r="R116" s="71"/>
       <c r="S116" s="16">
         <f>I116*J116</f>
@@ -31762,9 +31562,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O117" s="114"/>
-      <c r="P117" s="112"/>
-      <c r="Q117" s="112"/>
+      <c r="O117" s="112"/>
+      <c r="P117" s="110"/>
+      <c r="Q117" s="110"/>
       <c r="R117" s="71"/>
       <c r="S117" s="16">
         <f>I117*J117</f>
@@ -31857,9 +31657,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O118" s="114"/>
-      <c r="P118" s="112"/>
-      <c r="Q118" s="112"/>
+      <c r="O118" s="112"/>
+      <c r="P118" s="110"/>
+      <c r="Q118" s="110"/>
       <c r="R118" s="71"/>
       <c r="S118" s="16">
         <f>I118*J118</f>
@@ -31952,9 +31752,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O119" s="114"/>
-      <c r="P119" s="112"/>
-      <c r="Q119" s="112"/>
+      <c r="O119" s="112"/>
+      <c r="P119" s="110"/>
+      <c r="Q119" s="110"/>
       <c r="R119" s="71"/>
       <c r="S119" s="16">
         <f>I119*J119</f>
@@ -32047,9 +31847,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O120" s="114"/>
-      <c r="P120" s="112"/>
-      <c r="Q120" s="112"/>
+      <c r="O120" s="112"/>
+      <c r="P120" s="110"/>
+      <c r="Q120" s="110"/>
       <c r="R120" s="71"/>
       <c r="S120" s="16">
         <f>I120*J120</f>
@@ -32142,9 +31942,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O121" s="114"/>
-      <c r="P121" s="112"/>
-      <c r="Q121" s="112"/>
+      <c r="O121" s="112"/>
+      <c r="P121" s="110"/>
+      <c r="Q121" s="110"/>
       <c r="R121" s="71"/>
       <c r="S121" s="16">
         <f>I121*J121</f>
@@ -32237,9 +32037,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O122" s="114"/>
-      <c r="P122" s="112"/>
-      <c r="Q122" s="112"/>
+      <c r="O122" s="112"/>
+      <c r="P122" s="110"/>
+      <c r="Q122" s="110"/>
       <c r="R122" s="71"/>
       <c r="S122" s="16">
         <f>I122*J122</f>
@@ -32332,9 +32132,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O123" s="114"/>
-      <c r="P123" s="112"/>
-      <c r="Q123" s="112"/>
+      <c r="O123" s="112"/>
+      <c r="P123" s="110"/>
+      <c r="Q123" s="110"/>
       <c r="R123" s="71"/>
       <c r="S123" s="16">
         <f>I123*J123</f>
@@ -32427,9 +32227,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O124" s="114"/>
-      <c r="P124" s="112"/>
-      <c r="Q124" s="112"/>
+      <c r="O124" s="112"/>
+      <c r="P124" s="110"/>
+      <c r="Q124" s="110"/>
       <c r="R124" s="71"/>
       <c r="S124" s="16">
         <f>I124*J124</f>
@@ -32522,9 +32322,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O125" s="114"/>
-      <c r="P125" s="112"/>
-      <c r="Q125" s="112"/>
+      <c r="O125" s="112"/>
+      <c r="P125" s="110"/>
+      <c r="Q125" s="110"/>
       <c r="R125" s="71"/>
       <c r="S125" s="16">
         <f>I125*J125</f>
@@ -32617,9 +32417,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O126" s="114"/>
-      <c r="P126" s="112"/>
-      <c r="Q126" s="112"/>
+      <c r="O126" s="112"/>
+      <c r="P126" s="110"/>
+      <c r="Q126" s="110"/>
       <c r="R126" s="71"/>
       <c r="S126" s="16">
         <f>I126*J126</f>
@@ -32712,9 +32512,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O127" s="114"/>
-      <c r="P127" s="112"/>
-      <c r="Q127" s="112"/>
+      <c r="O127" s="112"/>
+      <c r="P127" s="110"/>
+      <c r="Q127" s="110"/>
       <c r="R127" s="71"/>
       <c r="S127" s="16">
         <f>I127*J127</f>
@@ -32807,9 +32607,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O128" s="114"/>
-      <c r="P128" s="112"/>
-      <c r="Q128" s="112"/>
+      <c r="O128" s="112"/>
+      <c r="P128" s="110"/>
+      <c r="Q128" s="110"/>
       <c r="R128" s="71"/>
       <c r="S128" s="16">
         <f>I128*J128</f>
@@ -32902,9 +32702,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O129" s="114"/>
-      <c r="P129" s="112"/>
-      <c r="Q129" s="112"/>
+      <c r="O129" s="112"/>
+      <c r="P129" s="110"/>
+      <c r="Q129" s="110"/>
       <c r="R129" s="71"/>
       <c r="S129" s="16">
         <f>I129*J129</f>
@@ -32997,9 +32797,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O130" s="114"/>
-      <c r="P130" s="112"/>
-      <c r="Q130" s="112"/>
+      <c r="O130" s="112"/>
+      <c r="P130" s="110"/>
+      <c r="Q130" s="110"/>
       <c r="R130" s="71"/>
       <c r="S130" s="16">
         <f>I130*J130</f>
@@ -33092,9 +32892,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O131" s="114"/>
-      <c r="P131" s="112"/>
-      <c r="Q131" s="112"/>
+      <c r="O131" s="112"/>
+      <c r="P131" s="110"/>
+      <c r="Q131" s="110"/>
       <c r="R131" s="71"/>
       <c r="S131" s="16">
         <f>I131*J131</f>
@@ -33187,9 +32987,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O132" s="114"/>
-      <c r="P132" s="112"/>
-      <c r="Q132" s="112"/>
+      <c r="O132" s="112"/>
+      <c r="P132" s="110"/>
+      <c r="Q132" s="110"/>
       <c r="R132" s="71"/>
       <c r="S132" s="16">
         <f>I132*J132</f>
@@ -33282,9 +33082,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O133" s="114"/>
-      <c r="P133" s="112"/>
-      <c r="Q133" s="112"/>
+      <c r="O133" s="112"/>
+      <c r="P133" s="110"/>
+      <c r="Q133" s="110"/>
       <c r="R133" s="71"/>
       <c r="S133" s="16">
         <f>I133*J133</f>
@@ -33377,9 +33177,9 @@
         <f t="shared" ref="N134:N141" si="19">ROUND(I134*(SUM(J134:M134)),0)</f>
         <v>0</v>
       </c>
-      <c r="O134" s="114"/>
-      <c r="P134" s="112"/>
-      <c r="Q134" s="112"/>
+      <c r="O134" s="112"/>
+      <c r="P134" s="110"/>
+      <c r="Q134" s="110"/>
       <c r="R134" s="71"/>
       <c r="S134" s="16">
         <f>I134*J134</f>
@@ -33472,9 +33272,9 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O135" s="114"/>
-      <c r="P135" s="112"/>
-      <c r="Q135" s="112"/>
+      <c r="O135" s="112"/>
+      <c r="P135" s="110"/>
+      <c r="Q135" s="110"/>
       <c r="R135" s="71"/>
       <c r="S135" s="16">
         <f>I135*J135</f>
@@ -33567,9 +33367,9 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O136" s="114"/>
-      <c r="P136" s="112"/>
-      <c r="Q136" s="112"/>
+      <c r="O136" s="112"/>
+      <c r="P136" s="110"/>
+      <c r="Q136" s="110"/>
       <c r="R136" s="71"/>
       <c r="S136" s="16">
         <f>I136*J136</f>
@@ -33662,9 +33462,9 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O137" s="114"/>
-      <c r="P137" s="112"/>
-      <c r="Q137" s="112"/>
+      <c r="O137" s="112"/>
+      <c r="P137" s="110"/>
+      <c r="Q137" s="110"/>
       <c r="R137" s="71"/>
       <c r="S137" s="16">
         <f>I137*J137</f>
@@ -33757,9 +33557,9 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O138" s="114"/>
-      <c r="P138" s="112"/>
-      <c r="Q138" s="112"/>
+      <c r="O138" s="112"/>
+      <c r="P138" s="110"/>
+      <c r="Q138" s="110"/>
       <c r="R138" s="71"/>
       <c r="S138" s="16">
         <f>I138*J138</f>
@@ -33852,9 +33652,9 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O139" s="114"/>
-      <c r="P139" s="112"/>
-      <c r="Q139" s="112"/>
+      <c r="O139" s="112"/>
+      <c r="P139" s="110"/>
+      <c r="Q139" s="110"/>
       <c r="R139" s="71"/>
       <c r="S139" s="16">
         <f>I139*J139</f>
@@ -33947,9 +33747,9 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O140" s="114"/>
-      <c r="P140" s="112"/>
-      <c r="Q140" s="112"/>
+      <c r="O140" s="112"/>
+      <c r="P140" s="110"/>
+      <c r="Q140" s="110"/>
       <c r="R140" s="71"/>
       <c r="S140" s="16">
         <f>I140*J140</f>
@@ -34042,9 +33842,9 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O141" s="114"/>
-      <c r="P141" s="112"/>
-      <c r="Q141" s="112"/>
+      <c r="O141" s="112"/>
+      <c r="P141" s="110"/>
+      <c r="Q141" s="110"/>
       <c r="R141" s="71"/>
       <c r="S141" s="16">
         <f>I141*J141</f>
@@ -34137,9 +33937,9 @@
         <f t="shared" ref="N142:N149" si="26">ROUND(I142*(SUM(J142:M142)),0)</f>
         <v>0</v>
       </c>
-      <c r="O142" s="114"/>
-      <c r="P142" s="112"/>
-      <c r="Q142" s="112"/>
+      <c r="O142" s="112"/>
+      <c r="P142" s="110"/>
+      <c r="Q142" s="110"/>
       <c r="R142" s="71"/>
       <c r="S142" s="16">
         <f>I142*J142</f>
@@ -34232,9 +34032,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O143" s="114"/>
-      <c r="P143" s="112"/>
-      <c r="Q143" s="112"/>
+      <c r="O143" s="112"/>
+      <c r="P143" s="110"/>
+      <c r="Q143" s="110"/>
       <c r="R143" s="71"/>
       <c r="S143" s="16">
         <f>I143*J143</f>
@@ -34327,9 +34127,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O144" s="114"/>
-      <c r="P144" s="112"/>
-      <c r="Q144" s="112"/>
+      <c r="O144" s="112"/>
+      <c r="P144" s="110"/>
+      <c r="Q144" s="110"/>
       <c r="R144" s="71"/>
       <c r="S144" s="16">
         <f>I144*J144</f>
@@ -34422,9 +34222,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O145" s="114"/>
-      <c r="P145" s="112"/>
-      <c r="Q145" s="112"/>
+      <c r="O145" s="112"/>
+      <c r="P145" s="110"/>
+      <c r="Q145" s="110"/>
       <c r="R145" s="71"/>
       <c r="S145" s="16">
         <f>I145*J145</f>
@@ -34517,9 +34317,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O146" s="114"/>
-      <c r="P146" s="112"/>
-      <c r="Q146" s="112"/>
+      <c r="O146" s="112"/>
+      <c r="P146" s="110"/>
+      <c r="Q146" s="110"/>
       <c r="R146" s="71"/>
       <c r="S146" s="16">
         <f>I146*J146</f>
@@ -34612,9 +34412,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O147" s="114"/>
-      <c r="P147" s="112"/>
-      <c r="Q147" s="112"/>
+      <c r="O147" s="112"/>
+      <c r="P147" s="110"/>
+      <c r="Q147" s="110"/>
       <c r="R147" s="71"/>
       <c r="S147" s="16">
         <f>I147*J147</f>
@@ -34707,9 +34507,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O148" s="114"/>
-      <c r="P148" s="112"/>
-      <c r="Q148" s="112"/>
+      <c r="O148" s="112"/>
+      <c r="P148" s="110"/>
+      <c r="Q148" s="110"/>
       <c r="R148" s="71"/>
       <c r="S148" s="16">
         <f>I148*J148</f>
@@ -34802,9 +34602,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O149" s="114"/>
-      <c r="P149" s="112"/>
-      <c r="Q149" s="112"/>
+      <c r="O149" s="112"/>
+      <c r="P149" s="110"/>
+      <c r="Q149" s="110"/>
       <c r="R149" s="71"/>
       <c r="S149" s="16">
         <f>I149*J149</f>
@@ -34897,9 +34697,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O150" s="114"/>
-      <c r="P150" s="112"/>
-      <c r="Q150" s="112"/>
+      <c r="O150" s="112"/>
+      <c r="P150" s="110"/>
+      <c r="Q150" s="110"/>
       <c r="R150" s="71"/>
       <c r="S150" s="16">
         <f>I150*J150</f>
@@ -34992,9 +34792,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O151" s="114"/>
-      <c r="P151" s="112"/>
-      <c r="Q151" s="112"/>
+      <c r="O151" s="112"/>
+      <c r="P151" s="110"/>
+      <c r="Q151" s="110"/>
       <c r="R151" s="71"/>
       <c r="S151" s="16">
         <f>I151*J151</f>
@@ -35087,9 +34887,9 @@
         <f t="shared" ref="N152" si="27">ROUND(I152*(SUM(J152:M152)),0)</f>
         <v>0</v>
       </c>
-      <c r="O152" s="114"/>
-      <c r="P152" s="112"/>
-      <c r="Q152" s="112"/>
+      <c r="O152" s="112"/>
+      <c r="P152" s="110"/>
+      <c r="Q152" s="110"/>
       <c r="R152" s="71"/>
       <c r="S152" s="16">
         <f>I152*J152</f>
@@ -35182,9 +34982,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O153" s="114"/>
-      <c r="P153" s="112"/>
-      <c r="Q153" s="112"/>
+      <c r="O153" s="112"/>
+      <c r="P153" s="110"/>
+      <c r="Q153" s="110"/>
       <c r="R153" s="71"/>
       <c r="S153" s="16">
         <f>I153*J153</f>
@@ -35277,9 +35077,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O154" s="114"/>
-      <c r="P154" s="112"/>
-      <c r="Q154" s="112"/>
+      <c r="O154" s="112"/>
+      <c r="P154" s="110"/>
+      <c r="Q154" s="110"/>
       <c r="R154" s="71"/>
       <c r="S154" s="16">
         <f>I154*J154</f>
@@ -35372,9 +35172,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O155" s="114"/>
-      <c r="P155" s="112"/>
-      <c r="Q155" s="112"/>
+      <c r="O155" s="112"/>
+      <c r="P155" s="110"/>
+      <c r="Q155" s="110"/>
       <c r="R155" s="71"/>
       <c r="S155" s="16">
         <f>I155*J155</f>
@@ -35537,10 +35337,10 @@
       <c r="O157"/>
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B158" s="134" t="s">
+      <c r="B158" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="C158" s="134"/>
+      <c r="C158" s="133"/>
       <c r="D158" s="39"/>
       <c r="E158" s="39"/>
       <c r="F158" s="39"/>
@@ -35621,15 +35421,15 @@
       <c r="AC163" s="39"/>
     </row>
     <row r="164" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B164" s="135" t="s">
+      <c r="B164" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="C164" s="135"/>
-      <c r="S164" s="133"/>
-      <c r="T164" s="133"/>
-      <c r="U164" s="133"/>
-      <c r="V164" s="133"/>
-      <c r="W164" s="133"/>
+      <c r="C164" s="134"/>
+      <c r="S164" s="132"/>
+      <c r="T164" s="132"/>
+      <c r="U164" s="132"/>
+      <c r="V164" s="132"/>
+      <c r="W164" s="132"/>
       <c r="AC164" s="39"/>
     </row>
     <row r="165" spans="2:29" x14ac:dyDescent="0.2">
@@ -35637,11 +35437,11 @@
         <v>82</v>
       </c>
       <c r="C165" s="60"/>
-      <c r="S165" s="133"/>
-      <c r="T165" s="133"/>
-      <c r="U165" s="133"/>
-      <c r="V165" s="133"/>
-      <c r="W165" s="133"/>
+      <c r="S165" s="132"/>
+      <c r="T165" s="132"/>
+      <c r="U165" s="132"/>
+      <c r="V165" s="132"/>
+      <c r="W165" s="132"/>
     </row>
     <row r="166" spans="2:29" x14ac:dyDescent="0.2">
       <c r="X166" s="39"/>
